--- a/final/papers/LocalVol.xlsx
+++ b/final/papers/LocalVol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbris\src\cqf\final\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F97671-01E5-41DB-A6FD-90B5B88896CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520FE50B-7455-43FB-ABBF-7FC94FA6F005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-15945" windowWidth="28050" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="555" windowWidth="28050" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Local_Vol." sheetId="1" r:id="rId1"/>
@@ -114,10 +114,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="169" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
     <numFmt numFmtId="174" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -318,7 +319,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -381,6 +382,7 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1895,8 +1897,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>47623</xdr:colOff>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>523873</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -1972,15 +1974,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>99</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>106</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2343,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DB85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AN10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BJ38" sqref="BJ38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BR1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CW5" sqref="CW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2367,7 +2369,7 @@
     <col min="55" max="55" width="3.7109375" customWidth="1"/>
     <col min="65" max="65" width="11.42578125" customWidth="1"/>
     <col min="66" max="66" width="3.7109375" customWidth="1"/>
-    <col min="69" max="69" width="8.140625" customWidth="1"/>
+    <col min="69" max="76" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="3.7109375" customWidth="1"/>
     <col min="89" max="89" width="3.7109375" customWidth="1"/>
     <col min="99" max="99" width="3.7109375" customWidth="1"/>
@@ -7336,6 +7338,38 @@
         <f t="shared" si="46"/>
         <v>1.9289748099999999</v>
       </c>
+      <c r="BQ22">
+        <f>(1+$BO7*N7*AJ7*SQRT(BQ$4))^2</f>
+        <v>0.97408062779027127</v>
+      </c>
+      <c r="BR22">
+        <f t="shared" ref="BR22:BX22" si="47">(1+$BO7*O7*AK7*SQRT(BR$4))^2</f>
+        <v>0.98747289329980292</v>
+      </c>
+      <c r="BS22">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="BT22">
+        <f t="shared" si="47"/>
+        <v>1.0110756043654958</v>
+      </c>
+      <c r="BU22">
+        <f t="shared" si="47"/>
+        <v>1.0104322806264578</v>
+      </c>
+      <c r="BV22">
+        <f t="shared" si="47"/>
+        <v>1.0193099901658393</v>
+      </c>
+      <c r="BW22">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="BX22">
+        <f t="shared" si="47"/>
+        <v>0.99565891168072684</v>
+      </c>
     </row>
     <row r="23" spans="1:100" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
@@ -7344,71 +7378,71 @@
         <v>-0.14003883563457692</v>
       </c>
       <c r="M23" s="34">
-        <f t="shared" ref="M23:U23" si="47">($O$1+B8^2/2)*M$4</f>
+        <f t="shared" ref="M23:U23" si="48">($O$1+B8^2/2)*M$4</f>
         <v>5.6999999999999993E-3</v>
       </c>
       <c r="N23" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>9.1977650000000001E-3</v>
       </c>
       <c r="O23" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.3304499999999999E-2</v>
       </c>
       <c r="P23" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.7659125000000001E-2</v>
       </c>
       <c r="Q23" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2.2351559999999996E-2</v>
       </c>
       <c r="R23" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2.646225E-2</v>
       </c>
       <c r="S23" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>5.2924499999999999E-2</v>
       </c>
       <c r="T23" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.113025</v>
       </c>
       <c r="U23" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.16917173999999999</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" ref="Y23:AF23" si="48">C8-B8</f>
+        <f t="shared" ref="Y23:AF23" si="49">C8-B8</f>
         <v>-5.2999999999999992E-2</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1.2000000000000011E-2</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-4.0000000000001146E-4</v>
       </c>
       <c r="AH23" s="3">
@@ -7416,39 +7450,39 @@
         <v>0.78999999999999915</v>
       </c>
       <c r="AI23" s="1">
-        <f t="shared" ref="AI23:AQ23" si="49">B8-B7</f>
+        <f t="shared" ref="AI23:AQ23" si="50">B8-B7</f>
         <v>1.3999999999999957E-2</v>
       </c>
       <c r="AJ23" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AK23" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AL23" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AM23" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AN23" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AQ23" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-1.3000000000000234E-3</v>
       </c>
       <c r="AS23" s="3">
@@ -7464,64 +7498,96 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AV23" s="1">
-        <f t="shared" ref="AV23:BB23" si="50">(D8-2*D7+D6)</f>
+        <f t="shared" ref="AV23:BB23" si="51">(D8-2*D7+D6)</f>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AW23" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AX23" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AY23" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AZ23" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="BA23" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="BB23" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-9.000000000000119E-4</v>
       </c>
       <c r="BF23">
-        <f t="shared" ref="BF23:BM23" si="51">C8^2+2*C8*BF$4</f>
+        <f t="shared" ref="BF23:BM23" si="52">C8^2+2*C8*BF$4</f>
         <v>0.189189</v>
       </c>
       <c r="BG23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.23343599999999998</v>
       </c>
       <c r="BH23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.281725</v>
       </c>
       <c r="BI23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.33339599999999997</v>
       </c>
       <c r="BJ23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.37884899999999999</v>
       </c>
       <c r="BK23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.67184899999999992</v>
       </c>
       <c r="BL23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.3130249999999999</v>
       </c>
       <c r="BM23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.9203811599999998</v>
+      </c>
+      <c r="BQ23">
+        <f t="shared" ref="BQ23:BX23" si="53">(1+$BO8*N8*AJ8*SQRT(BQ$4))^2</f>
+        <v>0.92105378606723487</v>
+      </c>
+      <c r="BR23">
+        <f t="shared" si="53"/>
+        <v>0.92271725160549389</v>
+      </c>
+      <c r="BS23">
+        <f t="shared" si="53"/>
+        <v>0.96242494055736916</v>
+      </c>
+      <c r="BT23">
+        <f t="shared" si="53"/>
+        <v>0.98178156215330992</v>
+      </c>
+      <c r="BU23">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="BV23">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="BW23">
+        <f t="shared" si="53"/>
+        <v>1.0040536525026729</v>
+      </c>
+      <c r="BX23">
+        <f t="shared" si="53"/>
+        <v>0.99432324403891481</v>
       </c>
     </row>
     <row r="24" spans="1:100" x14ac:dyDescent="0.25">
@@ -7530,71 +7596,71 @@
         <v>-0.1823215567939547</v>
       </c>
       <c r="M24" s="34">
-        <f t="shared" ref="M24:U24" si="52">($O$1+B9^2/2)*M$4</f>
+        <f t="shared" ref="M24:U24" si="54">($O$1+B9^2/2)*M$4</f>
         <v>5.6999999999999993E-3</v>
       </c>
       <c r="N24" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.7111650000000008E-3</v>
       </c>
       <c r="O24" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.39005E-2</v>
       </c>
       <c r="P24" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.8051165000000001E-2</v>
       </c>
       <c r="Q24" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>2.272389E-2</v>
       </c>
       <c r="R24" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>2.6756249999999999E-2</v>
       </c>
       <c r="S24" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>5.2631999999999998E-2</v>
       </c>
       <c r="T24" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.11180900000000001</v>
       </c>
       <c r="U24" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.16807734000000002</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" ref="Y24:AF24" si="53">C9-B9</f>
+        <f t="shared" ref="Y24:AF24" si="55">C9-B9</f>
         <v>-4.2999999999999983E-2</v>
       </c>
       <c r="Z24" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AC24" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.100000000000001E-2</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>4.0000000000001146E-4</v>
       </c>
       <c r="AH24" s="3">
@@ -7602,39 +7668,39 @@
         <v>0.78000000000000114</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" ref="AI24:AQ24" si="54">B9-B8</f>
+        <f t="shared" ref="AI24:AQ24" si="56">B9-B8</f>
         <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AM24" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AN24" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AO24" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AP24" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AQ24" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-1.1999999999999789E-3</v>
       </c>
       <c r="AS24" s="3">
@@ -7650,64 +7716,96 @@
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="AV24" s="1">
-        <f t="shared" ref="AV24:BB24" si="55">(D9-2*D8+D7)</f>
+        <f t="shared" ref="AV24:BB24" si="57">(D9-2*D8+D7)</f>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AW24" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AX24" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AY24" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AZ24" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="BA24" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="BB24" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.000000000000445E-4</v>
       </c>
       <c r="BF24">
-        <f t="shared" ref="BF24:BM24" si="56">C9^2+2*C9*BF$4</f>
+        <f t="shared" ref="BF24:BM24" si="58">C9^2+2*C9*BF$4</f>
         <v>0.198629</v>
       </c>
       <c r="BG24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.24220399999999997</v>
       </c>
       <c r="BH24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.28674099999999997</v>
       </c>
       <c r="BI24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.33768899999999996</v>
       </c>
       <c r="BJ24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.38202499999999995</v>
       </c>
       <c r="BK24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.66926399999999997</v>
       </c>
       <c r="BL24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.303809</v>
       </c>
       <c r="BM24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.9124515600000001</v>
+      </c>
+      <c r="BQ24">
+        <f t="shared" ref="BQ24:BX24" si="59">(1+$BO9*N9*AJ9*SQRT(BQ$4))^2</f>
+        <v>0.74683348513006687</v>
+      </c>
+      <c r="BR24">
+        <f t="shared" si="59"/>
+        <v>0.79608861106982021</v>
+      </c>
+      <c r="BS24">
+        <f t="shared" si="59"/>
+        <v>0.8966566814605873</v>
+      </c>
+      <c r="BT24">
+        <f t="shared" si="59"/>
+        <v>0.92363947878686659</v>
+      </c>
+      <c r="BU24">
+        <f t="shared" si="59"/>
+        <v>0.94969979505631275</v>
+      </c>
+      <c r="BV24">
+        <f t="shared" si="59"/>
+        <v>1.0215705749458863</v>
+      </c>
+      <c r="BW24">
+        <f t="shared" si="59"/>
+        <v>1.0226102016580274</v>
+      </c>
+      <c r="BX24">
+        <f t="shared" si="59"/>
+        <v>1.0027234281798258</v>
       </c>
     </row>
     <row r="25" spans="1:100" x14ac:dyDescent="0.25">
@@ -7717,71 +7815,71 @@
         <v>-0.22339829593410734</v>
       </c>
       <c r="M25" s="34">
-        <f t="shared" ref="M25:U25" si="57">($O$1+B10^2/2)*M$4</f>
+        <f t="shared" ref="M25:U25" si="60">($O$1+B10^2/2)*M$4</f>
         <v>5.6999999999999993E-3</v>
       </c>
       <c r="N25" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>9.8685000000000023E-3</v>
       </c>
       <c r="O25" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>1.4128125E-2</v>
       </c>
       <c r="P25" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>1.8348659999999999E-2</v>
       </c>
       <c r="Q25" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2.2974209999999998E-2</v>
       </c>
       <c r="R25" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2.705225E-2</v>
       </c>
       <c r="S25" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>5.2340499999999998E-2</v>
       </c>
       <c r="T25" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0.111204</v>
       </c>
       <c r="U25" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0.16698726000000003</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" ref="Y25:AF25" si="58">C10-B10</f>
+        <f t="shared" ref="Y25:AF25" si="61">C10-B10</f>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AC25" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>-6.0000000000000053E-3</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1.100000000000001E-2</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000003348E-4</v>
       </c>
       <c r="AH25" s="3">
@@ -7789,39 +7887,39 @@
         <v>0.78999999999999915</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" ref="AI25:AQ25" si="59">B10-B9</f>
+        <f t="shared" ref="AI25:AQ25" si="62">B10-B9</f>
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AL25" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AM25" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AN25" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AO25" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AP25" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AQ25" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>-1.1999999999999789E-3</v>
       </c>
       <c r="AS25" s="3">
@@ -7837,64 +7935,96 @@
         <v>-7.0000000000000062E-3</v>
       </c>
       <c r="AV25" s="1">
-        <f t="shared" ref="AV25:BB25" si="60">(D10-2*D9+D8)</f>
+        <f t="shared" ref="AV25:BB25" si="63">(D10-2*D9+D8)</f>
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="AW25" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AX25" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AY25" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AZ25" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="BA25" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="BB25" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="BF25">
-        <f t="shared" ref="BF25:BM25" si="61">C10^2+2*C10*BF$4</f>
+        <f t="shared" ref="BF25:BM25" si="64">C10^2+2*C10*BF$4</f>
         <v>0.20150000000000001</v>
       </c>
       <c r="BG25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.24552499999999999</v>
       </c>
       <c r="BH25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.290524</v>
       </c>
       <c r="BI25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.340561</v>
       </c>
       <c r="BJ25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.38520899999999997</v>
       </c>
       <c r="BK25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.66668099999999997</v>
       </c>
       <c r="BL25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>1.299204</v>
       </c>
       <c r="BM25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>1.9045248400000001</v>
+      </c>
+      <c r="BQ25">
+        <f t="shared" ref="BQ25:BX25" si="65">(1+$BO10*N10*AJ10*SQRT(BQ$4))^2</f>
+        <v>0.89994337139219027</v>
+      </c>
+      <c r="BR25">
+        <f t="shared" si="65"/>
+        <v>0.90032161617079964</v>
+      </c>
+      <c r="BS25">
+        <f t="shared" si="65"/>
+        <v>0.90133469271592104</v>
+      </c>
+      <c r="BT25">
+        <f t="shared" si="65"/>
+        <v>0.93448550850674283</v>
+      </c>
+      <c r="BU25">
+        <f t="shared" si="65"/>
+        <v>0.9353712885035208</v>
+      </c>
+      <c r="BV25">
+        <f t="shared" si="65"/>
+        <v>1.0294261401965195</v>
+      </c>
+      <c r="BW25">
+        <f t="shared" si="65"/>
+        <v>1.018547567110403</v>
+      </c>
+      <c r="BX25">
+        <f t="shared" si="65"/>
+        <v>1.0111630027172376</v>
       </c>
     </row>
     <row r="26" spans="1:100" x14ac:dyDescent="0.25">
@@ -7904,71 +8034,71 @@
         <v>-0.26236426446749112</v>
       </c>
       <c r="M26" s="34">
-        <f t="shared" ref="M26:U26" si="62">($O$1+B11^2/2)*M$4</f>
+        <f t="shared" ref="M26:U26" si="66">($O$1+B11^2/2)*M$4</f>
         <v>5.6999999999999993E-3</v>
       </c>
       <c r="N26" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>9.8685000000000023E-3</v>
       </c>
       <c r="O26" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1.4281125E-2</v>
       </c>
       <c r="P26" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1.874994E-2</v>
       </c>
       <c r="Q26" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>2.3607360000000001E-2</v>
       </c>
       <c r="R26" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>2.75E-2</v>
       </c>
       <c r="S26" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>5.2340499999999998E-2</v>
       </c>
       <c r="T26" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0.109401</v>
       </c>
       <c r="U26" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0.16401181500000001</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" ref="Y26:AF26" si="63">C11-B11</f>
+        <f t="shared" ref="Y26:AF26" si="67">C11-B11</f>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AA26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AC26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-9.9999999999988987E-5</v>
       </c>
       <c r="AH26" s="3">
@@ -7976,39 +8106,39 @@
         <v>0.78000000000000114</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" ref="AI26:AQ26" si="64">B11-B10</f>
+        <f t="shared" ref="AI26:AQ26" si="68">B11-B10</f>
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AL26" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AM26" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="AN26" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AO26" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AQ26" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>-3.3000000000000251E-3</v>
       </c>
       <c r="AS26" s="3">
@@ -8024,64 +8154,96 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AV26" s="1">
-        <f t="shared" ref="AV26:BB26" si="65">(D11-2*D10+D9)</f>
+        <f t="shared" ref="AV26:BB26" si="69">(D11-2*D10+D9)</f>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AW26" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AX26" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AY26" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AZ26" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="BA26" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="BB26" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>-2.1000000000000463E-3</v>
       </c>
       <c r="BF26">
-        <f t="shared" ref="BF26:BM26" si="66">C11^2+2*C11*BF$4</f>
+        <f t="shared" ref="BF26:BM26" si="70">C11^2+2*C11*BF$4</f>
         <v>0.20150000000000001</v>
       </c>
       <c r="BG26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.247749</v>
       </c>
       <c r="BH26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.29559599999999997</v>
       </c>
       <c r="BI26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.34777599999999997</v>
       </c>
       <c r="BJ26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.39</v>
       </c>
       <c r="BK26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.66668099999999997</v>
       </c>
       <c r="BL26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>1.285401</v>
       </c>
       <c r="BM26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>1.8827412100000001</v>
+      </c>
+      <c r="BQ26">
+        <f t="shared" ref="BQ26:BX26" si="71">(1+$BO11*N11*AJ11*SQRT(BQ$4))^2</f>
+        <v>1</v>
+      </c>
+      <c r="BR26">
+        <f t="shared" si="71"/>
+        <v>0.91720852126502328</v>
+      </c>
+      <c r="BS26">
+        <f t="shared" si="71"/>
+        <v>0.84028796722211818</v>
+      </c>
+      <c r="BT26">
+        <f t="shared" si="71"/>
+        <v>0.80504952464861212</v>
+      </c>
+      <c r="BU26">
+        <f t="shared" si="71"/>
+        <v>0.88086455987012513</v>
+      </c>
+      <c r="BV26">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="BW26">
+        <f t="shared" si="71"/>
+        <v>1.0819312689137885</v>
+      </c>
+      <c r="BX26">
+        <f t="shared" si="71"/>
+        <v>1.0576339062687397</v>
       </c>
     </row>
     <row r="27" spans="1:100" x14ac:dyDescent="0.25">
@@ -8091,71 +8253,71 @@
         <v>-0.3003404693237044</v>
       </c>
       <c r="M27" s="34">
-        <f t="shared" ref="M27:U27" si="67">($O$1+B12^2/2)*M$4</f>
+        <f t="shared" ref="M27:U27" si="72">($O$1+B12^2/2)*M$4</f>
         <v>5.6999999999999993E-3</v>
       </c>
       <c r="N27" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>9.8685000000000023E-3</v>
       </c>
       <c r="O27" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>1.4435125E-2</v>
       </c>
       <c r="P27" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>1.9361760000000002E-2</v>
       </c>
       <c r="Q27" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>2.4381E-2</v>
       </c>
       <c r="R27" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>2.8104000000000001E-2</v>
       </c>
       <c r="S27" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>5.2340499999999998E-2</v>
       </c>
       <c r="T27" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.10643599999999999</v>
       </c>
       <c r="U27" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.15947766000000002</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" ref="Y27:AF27" si="68">C12-B12</f>
+        <f t="shared" ref="Y27:AF27" si="73">C12-B12</f>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>-6.0000000000000053E-3</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>-1.3000000000000012E-2</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>-1.9999999999997797E-4</v>
       </c>
       <c r="AH27" s="3">
@@ -8163,39 +8325,39 @@
         <v>0.78999999999999915</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" ref="AI27:AQ27" si="69">B12-B11</f>
+        <f t="shared" ref="AI27:AQ27" si="74">B12-B11</f>
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="AM27" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="AN27" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AO27" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-5.0999999999999934E-3</v>
       </c>
       <c r="AS27" s="3">
@@ -8211,64 +8373,96 @@
         <v>0</v>
       </c>
       <c r="AV27" s="1">
-        <f t="shared" ref="AV27:BB27" si="70">(D12-2*D11+D10)</f>
+        <f t="shared" ref="AV27:BB27" si="75">(D12-2*D11+D10)</f>
         <v>0</v>
       </c>
       <c r="AW27" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AX27" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AY27" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AZ27" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="BB27" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>-1.7999999999999683E-3</v>
       </c>
       <c r="BF27">
-        <f t="shared" ref="BF27:BM27" si="71">C12^2+2*C12*BF$4</f>
+        <f t="shared" ref="BF27:BM27" si="76">C12^2+2*C12*BF$4</f>
         <v>0.20150000000000001</v>
       </c>
       <c r="BG27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.24998100000000001</v>
       </c>
       <c r="BH27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.30326400000000003</v>
       </c>
       <c r="BI27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.35649999999999998</v>
       </c>
       <c r="BJ27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.39641599999999999</v>
       </c>
       <c r="BK27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.66668099999999997</v>
       </c>
       <c r="BL27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>1.2624359999999999</v>
       </c>
       <c r="BM27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>1.84911844</v>
+      </c>
+      <c r="BQ27">
+        <f t="shared" ref="BQ27:BX27" si="77">(1+$BO12*N12*AJ12*SQRT(BQ$4))^2</f>
+        <v>1</v>
+      </c>
+      <c r="BR27">
+        <f t="shared" si="77"/>
+        <v>0.90314701880026993</v>
+      </c>
+      <c r="BS27">
+        <f t="shared" si="77"/>
+        <v>0.7310188128075672</v>
+      </c>
+      <c r="BT27">
+        <f t="shared" si="77"/>
+        <v>0.73387979848658724</v>
+      </c>
+      <c r="BU27">
+        <f t="shared" si="77"/>
+        <v>0.81698796370169702</v>
+      </c>
+      <c r="BV27">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="BW27">
+        <f t="shared" si="77"/>
+        <v>1.1848215998046823</v>
+      </c>
+      <c r="BX27">
+        <f t="shared" si="77"/>
+        <v>1.135541886361807</v>
       </c>
     </row>
     <row r="28" spans="1:100" x14ac:dyDescent="0.25">
@@ -8278,71 +8472,71 @@
         <v>-0.33647223662121306</v>
       </c>
       <c r="M28" s="34">
-        <f t="shared" ref="M28:U28" si="72">($O$1+B13^2/2)*M$4</f>
+        <f t="shared" ref="M28:U28" si="78">($O$1+B13^2/2)*M$4</f>
         <v>5.6999999999999993E-3</v>
       </c>
       <c r="N28" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>9.8685000000000023E-3</v>
       </c>
       <c r="O28" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>1.4512500000000001E-2</v>
       </c>
       <c r="P28" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>1.9568340000000004E-2</v>
       </c>
       <c r="Q28" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>2.4773489999999999E-2</v>
       </c>
       <c r="R28" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>2.8562250000000001E-2</v>
       </c>
       <c r="S28" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>5.2631999999999998E-2</v>
       </c>
       <c r="T28" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.10352099999999999</v>
       </c>
       <c r="U28" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.15510815999999999</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" ref="Y28:AF28" si="73">C13-B13</f>
+        <f t="shared" ref="Y28:AF28" si="79">C13-B13</f>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="Z28" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-6.0000000000000053E-3</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-1.5000000000000013E-2</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-1.9999999999997797E-4</v>
       </c>
       <c r="AH28" s="3">
@@ -8350,39 +8544,39 @@
         <v>0.78000000000000114</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" ref="AI28:AQ28" si="74">B13-B12</f>
+        <f t="shared" ref="AI28:AQ28" si="80">B13-B12</f>
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AL28" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AM28" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AN28" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AO28" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AP28" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="AQ28" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="AS28" s="3">
@@ -8398,64 +8592,96 @@
         <v>0</v>
       </c>
       <c r="AV28" s="1">
-        <f t="shared" ref="AV28:BB28" si="75">(D13-2*D12+D11)</f>
+        <f t="shared" ref="AV28:BB28" si="81">(D13-2*D12+D11)</f>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AW28" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="AX28" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AY28" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AZ28" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="BA28" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="BB28" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>9.9999999999988987E-5</v>
       </c>
       <c r="BF28">
-        <f t="shared" ref="BF28:BM28" si="76">C13^2+2*C13*BF$4</f>
+        <f t="shared" ref="BF28:BM28" si="82">C13^2+2*C13*BF$4</f>
         <v>0.20150000000000001</v>
       </c>
       <c r="BG28">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>0.25109999999999999</v>
       </c>
       <c r="BH28">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>0.305836</v>
       </c>
       <c r="BI28">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>0.36088900000000002</v>
       </c>
       <c r="BJ28">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>0.40124899999999997</v>
       </c>
       <c r="BK28">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>0.66926399999999997</v>
       </c>
       <c r="BL28">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1.2395209999999999</v>
       </c>
       <c r="BM28">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1.8162054400000001</v>
+      </c>
+      <c r="BQ28">
+        <f t="shared" ref="BQ28:BX28" si="83">(1+$BO13*N13*AJ13*SQRT(BQ$4))^2</f>
+        <v>1</v>
+      </c>
+      <c r="BR28">
+        <f t="shared" si="83"/>
+        <v>0.94232324450277738</v>
+      </c>
+      <c r="BS28">
+        <f t="shared" si="83"/>
+        <v>0.88947498247850731</v>
+      </c>
+      <c r="BT28">
+        <f t="shared" si="83"/>
+        <v>0.83871344217471355</v>
+      </c>
+      <c r="BU28">
+        <f t="shared" si="83"/>
+        <v>0.83761109366472974</v>
+      </c>
+      <c r="BV28">
+        <f t="shared" si="83"/>
+        <v>0.9459662663126791</v>
+      </c>
+      <c r="BW28">
+        <f t="shared" si="83"/>
+        <v>1.2400420129524958</v>
+      </c>
+      <c r="BX28">
+        <f t="shared" si="83"/>
+        <v>1.1847940575250995</v>
       </c>
     </row>
     <row r="29" spans="1:100" x14ac:dyDescent="0.25">
@@ -8465,71 +8691,71 @@
         <v>-0.37178316772138587</v>
       </c>
       <c r="M29" s="34">
-        <f t="shared" ref="M29:U29" si="77">($O$1+B14^2/2)*M$4</f>
+        <f t="shared" ref="M29:U29" si="84">($O$1+B14^2/2)*M$4</f>
         <v>5.6999999999999993E-3</v>
       </c>
       <c r="N29" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>9.8685000000000023E-3</v>
       </c>
       <c r="O29" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>1.4512500000000001E-2</v>
       </c>
       <c r="P29" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>1.9568340000000004E-2</v>
       </c>
       <c r="Q29" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>2.4905159999999999E-2</v>
       </c>
       <c r="R29" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>2.8716000000000002E-2</v>
       </c>
       <c r="S29" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>5.3217999999999994E-2</v>
       </c>
       <c r="T29" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.10352099999999999</v>
       </c>
       <c r="U29" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.15528149999999999</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" ref="Y29:AF29" si="78">C14-B14</f>
+        <f t="shared" ref="Y29:AF29" si="85">C14-B14</f>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>-6.0000000000000053E-3</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>-1.4000000000000012E-2</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AH29" s="3">
@@ -8537,39 +8763,39 @@
         <v>0.78999999999999915</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" ref="AI29:AQ29" si="79">B14-B13</f>
+        <f t="shared" ref="AI29:AQ29" si="86">B14-B13</f>
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AM29" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AN29" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AO29" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AP29" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>1.9999999999997797E-4</v>
       </c>
       <c r="AS29" s="3">
@@ -8585,64 +8811,96 @@
         <v>0</v>
       </c>
       <c r="AV29" s="1">
-        <f t="shared" ref="AV29:BB29" si="80">(D14-2*D13+D12)</f>
+        <f t="shared" ref="AV29:BB29" si="87">(D14-2*D13+D12)</f>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AW29" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AX29" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AY29" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AZ29" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="BA29" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="BB29" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>5.1999999999999824E-3</v>
       </c>
       <c r="BF29">
-        <f t="shared" ref="BF29:BM29" si="81">C14^2+2*C14*BF$4</f>
+        <f t="shared" ref="BF29:BM29" si="88">C14^2+2*C14*BF$4</f>
         <v>0.20150000000000001</v>
       </c>
       <c r="BG29">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0.25109999999999999</v>
       </c>
       <c r="BH29">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0.305836</v>
       </c>
       <c r="BI29">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0.36235600000000001</v>
       </c>
       <c r="BJ29">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0.402864</v>
       </c>
       <c r="BK29">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0.67443599999999992</v>
       </c>
       <c r="BL29">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>1.2395209999999999</v>
       </c>
       <c r="BM29">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>1.8175209999999999</v>
+      </c>
+      <c r="BQ29">
+        <f t="shared" ref="BQ29:BX29" si="89">(1+$BO14*N14*AJ14*SQRT(BQ$4))^2</f>
+        <v>1</v>
+      </c>
+      <c r="BR29">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="BS29">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="BT29">
+        <f t="shared" si="89"/>
+        <v>0.93733236621681082</v>
+      </c>
+      <c r="BU29">
+        <f t="shared" si="89"/>
+        <v>0.93682191794965242</v>
+      </c>
+      <c r="BV29">
+        <f t="shared" si="89"/>
+        <v>0.87897723003971173</v>
+      </c>
+      <c r="BW29">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="BX29">
+        <f t="shared" si="89"/>
+        <v>0.99138172044258843</v>
       </c>
     </row>
     <row r="30" spans="1:100" x14ac:dyDescent="0.25">
@@ -8651,71 +8909,71 @@
         <v>-0.40546510810816444</v>
       </c>
       <c r="M30" s="34">
-        <f t="shared" ref="M30:U30" si="82">($O$1+B15^2/2)*M$4</f>
+        <f t="shared" ref="M30:U30" si="90">($O$1+B15^2/2)*M$4</f>
         <v>5.6999999999999993E-3</v>
       </c>
       <c r="N30" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>9.8685000000000023E-3</v>
       </c>
       <c r="O30" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.4512500000000001E-2</v>
       </c>
       <c r="P30" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.9568340000000004E-2</v>
       </c>
       <c r="Q30" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.503725E-2</v>
       </c>
       <c r="R30" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.9180250000000001E-2</v>
       </c>
       <c r="S30" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>5.3807999999999995E-2</v>
       </c>
       <c r="T30" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.10352099999999999</v>
       </c>
       <c r="U30" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.15562854000000001</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" ref="Y30:AF30" si="83">C15-B15</f>
+        <f t="shared" ref="Y30:AF30" si="91">C15-B15</f>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="Z30" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>-1.5000000000000013E-2</v>
       </c>
       <c r="AE30" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>-7.0000000000000062E-3</v>
       </c>
       <c r="AF30" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>4.0000000000001146E-4</v>
       </c>
       <c r="AH30" s="3">
@@ -8723,39 +8981,39 @@
         <v>0.78000000000000114</v>
       </c>
       <c r="AI30" s="1">
-        <f t="shared" ref="AI30:AQ30" si="84">B15-B14</f>
+        <f t="shared" ref="AI30:AQ30" si="92">B15-B14</f>
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AM30" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AN30" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AO30" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AP30" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>4.0000000000001146E-4</v>
       </c>
       <c r="AS30" s="3">
@@ -8771,64 +9029,96 @@
         <v>0</v>
       </c>
       <c r="AV30" s="1">
-        <f t="shared" ref="AV30:BB30" si="85">(D15-2*D14+D13)</f>
+        <f t="shared" ref="AV30:BB30" si="93">(D15-2*D14+D13)</f>
         <v>0</v>
       </c>
       <c r="AW30" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AX30" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AY30" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AZ30" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BA30" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BB30" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>2.0000000000003348E-4</v>
       </c>
       <c r="BF30">
-        <f t="shared" ref="BF30:BM30" si="86">C15^2+2*C15*BF$4</f>
+        <f t="shared" ref="BF30:BM30" si="94">C15^2+2*C15*BF$4</f>
         <v>0.20150000000000001</v>
       </c>
       <c r="BG30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>0.25109999999999999</v>
       </c>
       <c r="BH30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>0.305836</v>
       </c>
       <c r="BI30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>0.36382500000000001</v>
       </c>
       <c r="BJ30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>0.407721</v>
       </c>
       <c r="BK30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>0.679616</v>
       </c>
       <c r="BL30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>1.2395209999999999</v>
       </c>
       <c r="BM30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>1.82015236</v>
+      </c>
+      <c r="BQ30">
+        <f t="shared" ref="BQ30:BX30" si="95">(1+$BO15*N15*AJ15*SQRT(BQ$4))^2</f>
+        <v>1</v>
+      </c>
+      <c r="BR30">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="BS30">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="BT30">
+        <f t="shared" si="95"/>
+        <v>0.92840263304084736</v>
+      </c>
+      <c r="BU30">
+        <f t="shared" si="95"/>
+        <v>0.79282862448118929</v>
+      </c>
+      <c r="BV30">
+        <f t="shared" si="95"/>
+        <v>0.86166889042102801</v>
+      </c>
+      <c r="BW30">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="BX30">
+        <f t="shared" si="95"/>
+        <v>0.97925688875753991</v>
       </c>
     </row>
     <row r="31" spans="1:100" x14ac:dyDescent="0.25">
@@ -8837,71 +9127,71 @@
         <v>-0.43846037520511882</v>
       </c>
       <c r="M31" s="34">
-        <f t="shared" ref="M31:U31" si="87">($O$1+B16^2/2)*M$4</f>
+        <f t="shared" ref="M31:U31" si="96">($O$1+B16^2/2)*M$4</f>
         <v>5.7561599999999989E-3</v>
       </c>
       <c r="N31" s="34">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>9.8685000000000023E-3</v>
       </c>
       <c r="O31" s="34">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>1.4512500000000001E-2</v>
       </c>
       <c r="P31" s="34">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>1.9568340000000004E-2</v>
       </c>
       <c r="Q31" s="34">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>2.4511410000000001E-2</v>
       </c>
       <c r="R31" s="34">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>2.9336000000000001E-2</v>
       </c>
       <c r="S31" s="34">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>5.4401999999999999E-2</v>
       </c>
       <c r="T31" s="34">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0.1041</v>
       </c>
       <c r="U31" s="34">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0.15597606</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" ref="Y31:AF31" si="88">C16-B16</f>
+        <f t="shared" ref="Y31:AF31" si="97">C16-B16</f>
         <v>-4.1999999999999982E-2</v>
       </c>
       <c r="Z31" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AA31" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AC31" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>-1.4000000000000012E-2</v>
       </c>
       <c r="AE31" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>-8.0000000000000071E-3</v>
       </c>
       <c r="AF31" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>-1.9999999999997797E-4</v>
       </c>
       <c r="AH31" s="3">
@@ -8909,39 +9199,39 @@
         <v>0.78999999999999915</v>
       </c>
       <c r="AI31" s="1">
-        <f t="shared" ref="AI31:AQ31" si="89">B16-B15</f>
+        <f t="shared" ref="AI31:AQ31" si="98">B16-B15</f>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AJ31" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="AN31" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AO31" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AP31" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AQ31" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v>4.0000000000001146E-4</v>
       </c>
       <c r="AS31" s="3">
@@ -8957,64 +9247,96 @@
         <v>0</v>
       </c>
       <c r="AV31" s="1">
-        <f t="shared" ref="AV31:BB31" si="90">(D16-2*D15+D14)</f>
+        <f t="shared" ref="AV31:BB31" si="99">(D16-2*D15+D14)</f>
         <v>0</v>
       </c>
       <c r="AW31" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AX31" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="99"/>
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="AY31" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="99"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AZ31" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="99"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="BB31" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="BF31">
-        <f t="shared" ref="BF31:BM31" si="91">C16^2+2*C16*BF$4</f>
+        <f t="shared" ref="BF31:BM31" si="100">C16^2+2*C16*BF$4</f>
         <v>0.20150000000000001</v>
       </c>
       <c r="BG31">
-        <f t="shared" si="91"/>
+        <f t="shared" si="100"/>
         <v>0.25109999999999999</v>
       </c>
       <c r="BH31">
-        <f t="shared" si="91"/>
+        <f t="shared" si="100"/>
         <v>0.305836</v>
       </c>
       <c r="BI31">
-        <f t="shared" si="91"/>
+        <f t="shared" si="100"/>
         <v>0.35796099999999997</v>
       </c>
       <c r="BJ31">
-        <f t="shared" si="91"/>
+        <f t="shared" si="100"/>
         <v>0.40934399999999999</v>
       </c>
       <c r="BK31">
-        <f t="shared" si="91"/>
+        <f t="shared" si="100"/>
         <v>0.68480399999999997</v>
       </c>
       <c r="BL31">
-        <f t="shared" si="91"/>
+        <f t="shared" si="100"/>
         <v>1.2441</v>
       </c>
       <c r="BM31">
-        <f t="shared" si="91"/>
+        <f t="shared" si="100"/>
         <v>1.8227840399999999</v>
+      </c>
+      <c r="BQ31">
+        <f t="shared" ref="BQ31:BX31" si="101">(1+$BO16*N16*AJ16*SQRT(BQ$4))^2</f>
+        <v>1</v>
+      </c>
+      <c r="BR31">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="BS31">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="BT31">
+        <f t="shared" si="101"/>
+        <v>1.35498043859633</v>
+      </c>
+      <c r="BU31">
+        <f t="shared" si="101"/>
+        <v>0.92082986072623318</v>
+      </c>
+      <c r="BV31">
+        <f t="shared" si="101"/>
+        <v>0.84747609775317168</v>
+      </c>
+      <c r="BW31">
+        <f t="shared" si="101"/>
+        <v>0.93021578053504594</v>
+      </c>
+      <c r="BX31">
+        <f t="shared" si="101"/>
+        <v>0.97611842396637138</v>
       </c>
     </row>
     <row r="32" spans="1:100" x14ac:dyDescent="0.25">
@@ -9023,71 +9345,71 @@
         <v>-0.47000362924573558</v>
       </c>
       <c r="M32" s="34">
-        <f t="shared" ref="M32:U32" si="92">($O$1+B17^2/2)*M$4</f>
+        <f t="shared" ref="M32:U32" si="102">($O$1+B17^2/2)*M$4</f>
         <v>5.7561599999999989E-3</v>
       </c>
       <c r="N32" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>9.8685000000000023E-3</v>
       </c>
       <c r="O32" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>1.4512500000000001E-2</v>
       </c>
       <c r="P32" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>1.9568340000000004E-2</v>
       </c>
       <c r="Q32" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>2.503725E-2</v>
       </c>
       <c r="R32" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>2.9336000000000001E-2</v>
       </c>
       <c r="S32" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>5.4700499999999999E-2</v>
       </c>
       <c r="T32" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0.1041</v>
       </c>
       <c r="U32" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0.15623701500000003</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" ref="Y32:AF32" si="93">C17-B17</f>
+        <f t="shared" ref="Y32:AF32" si="103">C17-B17</f>
         <v>-4.1999999999999982E-2</v>
       </c>
       <c r="Z32" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AC32" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AD32" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>-1.3000000000000012E-2</v>
       </c>
       <c r="AE32" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="AF32" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>1.000000000000445E-4</v>
       </c>
       <c r="AH32" s="3">
@@ -9095,39 +9417,39 @@
         <v>0.78000000000000114</v>
       </c>
       <c r="AI32" s="1">
-        <f t="shared" ref="AI32:AQ32" si="94">B17-B16</f>
+        <f t="shared" ref="AI32:AQ32" si="104">B17-B16</f>
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AM32" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AN32" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AO32" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AP32" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>3.0000000000002247E-4</v>
       </c>
       <c r="AS32" s="3">
@@ -9143,67 +9465,99 @@
         <v>0</v>
       </c>
       <c r="AV32" s="1">
-        <f t="shared" ref="AV32:BB32" si="95">(D17-2*D16+D15)</f>
+        <f t="shared" ref="AV32:BB32" si="105">(D17-2*D16+D15)</f>
         <v>0</v>
       </c>
       <c r="AW32" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="AX32" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="105"/>
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="AY32" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="105"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AZ32" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="105"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="BA32" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="105"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="BB32" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="105"/>
         <v>-9.9999999999988987E-5</v>
       </c>
       <c r="BF32">
-        <f t="shared" ref="BF32:BM32" si="96">C17^2+2*C17*BF$4</f>
+        <f t="shared" ref="BF32:BM32" si="106">C17^2+2*C17*BF$4</f>
         <v>0.20150000000000001</v>
       </c>
       <c r="BG32">
-        <f t="shared" si="96"/>
+        <f t="shared" si="106"/>
         <v>0.25109999999999999</v>
       </c>
       <c r="BH32">
-        <f t="shared" si="96"/>
+        <f t="shared" si="106"/>
         <v>0.305836</v>
       </c>
       <c r="BI32">
-        <f t="shared" si="96"/>
+        <f t="shared" si="106"/>
         <v>0.36382500000000001</v>
       </c>
       <c r="BJ32">
-        <f t="shared" si="96"/>
+        <f t="shared" si="106"/>
         <v>0.40934399999999999</v>
       </c>
       <c r="BK32">
-        <f t="shared" si="96"/>
+        <f t="shared" si="106"/>
         <v>0.68740099999999993</v>
       </c>
       <c r="BL32">
-        <f t="shared" si="96"/>
+        <f t="shared" si="106"/>
         <v>1.2441</v>
       </c>
       <c r="BM32">
-        <f t="shared" si="96"/>
+        <f t="shared" si="106"/>
         <v>1.8247580100000003</v>
       </c>
+      <c r="BQ32">
+        <f t="shared" ref="BQ32:BX32" si="107">(1+$BO17*N17*AJ17*SQRT(BQ$4))^2</f>
+        <v>1</v>
+      </c>
+      <c r="BR32">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="BS32">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="BT32">
+        <f t="shared" si="107"/>
+        <v>0.6691717971787452</v>
+      </c>
+      <c r="BU32">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="BV32">
+        <f t="shared" si="107"/>
+        <v>0.91253680791815417</v>
+      </c>
+      <c r="BW32">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="BX32">
+        <f t="shared" si="107"/>
+        <v>0.97920972636134473</v>
+      </c>
     </row>
-    <row r="33" spans="13:65" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:76" x14ac:dyDescent="0.25">
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
       <c r="O33" s="34"/>
@@ -9214,41 +9568,41 @@
       <c r="T33" s="34"/>
       <c r="U33" s="34"/>
     </row>
-    <row r="34" spans="13:65" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:76" x14ac:dyDescent="0.25">
       <c r="M34" s="34">
         <f>B5*SQRT(M$4)</f>
         <v>9.107535341682732E-2</v>
       </c>
       <c r="N34" s="34">
-        <f t="shared" ref="N34:U34" si="97">C5*SQRT(N$4)</f>
+        <f t="shared" ref="N34:U34" si="108">C5*SQRT(N$4)</f>
         <v>0.12080699483059745</v>
       </c>
       <c r="O34" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="108"/>
         <v>0.14549999999999999</v>
       </c>
       <c r="P34" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="108"/>
         <v>0.16946459807287184</v>
       </c>
       <c r="Q34" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="108"/>
         <v>0.19247799874271343</v>
       </c>
       <c r="R34" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="108"/>
         <v>0.21071782079359117</v>
       </c>
       <c r="S34" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="108"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="T34" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="108"/>
         <v>0.43274935008616711</v>
       </c>
       <c r="U34" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="108"/>
         <v>0.53035395727759027</v>
       </c>
       <c r="Y34" s="1">
@@ -9256,101 +9610,101 @@
         <v>-0.32222222222222247</v>
       </c>
       <c r="Z34" s="1">
-        <f t="shared" ref="Z34:AF34" si="98">Z20/Z$19</f>
+        <f t="shared" ref="Z34:AF34" si="109">Z20/Z$19</f>
         <v>-2.5000000000000026E-2</v>
       </c>
       <c r="AA34" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="109"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="109"/>
         <v>2.2222222222222251E-2</v>
       </c>
       <c r="AC34" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="109"/>
         <v>1.2500000000000009E-2</v>
       </c>
       <c r="AD34" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="109"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AE34" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="109"/>
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="AF34" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="109"/>
         <v>2.0000000000003348E-4</v>
       </c>
     </row>
-    <row r="35" spans="13:65" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:76" x14ac:dyDescent="0.25">
       <c r="M35" s="34">
-        <f t="shared" ref="M35:U35" si="99">B6*SQRT(M$4)</f>
+        <f t="shared" ref="M35:U35" si="110">B6*SQRT(M$4)</f>
         <v>9.0509667991878082E-2</v>
       </c>
       <c r="N35" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="110"/>
         <v>0.11998237370547392</v>
       </c>
       <c r="O35" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="110"/>
         <v>0.14449999999999999</v>
       </c>
       <c r="P35" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="110"/>
         <v>0.16831568554356421</v>
       </c>
       <c r="Q35" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="110"/>
         <v>0.19053377653319106</v>
       </c>
       <c r="R35" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="110"/>
         <v>0.20788939366884499</v>
       </c>
       <c r="S35" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="110"/>
         <v>0.29599999999999999</v>
       </c>
       <c r="T35" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="110"/>
         <v>0.43274935008616711</v>
       </c>
       <c r="U35" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="110"/>
         <v>0.53052716235834707</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" ref="Y35:AF35" si="100">Y21/Y$19</f>
+        <f t="shared" ref="Y35:AF35" si="111">Y21/Y$19</f>
         <v>-0.32222222222222247</v>
       </c>
       <c r="Z35" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="111"/>
         <v>-2.5000000000000026E-2</v>
       </c>
       <c r="AA35" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="111"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="111"/>
         <v>1.1111111111111125E-2</v>
       </c>
       <c r="AC35" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AD35" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="111"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AE35" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="111"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AF35" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="111"/>
         <v>3.0000000000002247E-4</v>
       </c>
       <c r="AI35" s="1">
@@ -9358,142 +9712,142 @@
         <v>-2.531645569620258E-3</v>
       </c>
       <c r="AJ35" s="1">
-        <f t="shared" ref="AJ35:AQ35" si="101">AJ21/$AH21</f>
+        <f t="shared" ref="AJ35:AQ35" si="112">AJ21/$AH21</f>
         <v>-2.531645569620258E-3</v>
       </c>
       <c r="AK35" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="112"/>
         <v>-2.531645569620258E-3</v>
       </c>
       <c r="AL35" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="112"/>
         <v>-2.531645569620258E-3</v>
       </c>
       <c r="AM35" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="112"/>
         <v>-3.7974683544303874E-3</v>
       </c>
       <c r="AN35" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="112"/>
         <v>-5.063291139240516E-3</v>
       </c>
       <c r="AO35" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="112"/>
         <v>-3.7974683544303874E-3</v>
       </c>
       <c r="AP35" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="112"/>
         <v>1.2658227848099884E-4</v>
       </c>
       <c r="AT35" s="1"/>
     </row>
-    <row r="36" spans="13:65" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:76" x14ac:dyDescent="0.25">
       <c r="M36" s="34">
-        <f t="shared" ref="M36:U36" si="102">B7*SQRT(M$4)</f>
+        <f t="shared" ref="M36:U36" si="113">B7*SQRT(M$4)</f>
         <v>9.5035151391471992E-2</v>
       </c>
       <c r="N36" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="113"/>
         <v>0.12080699483059745</v>
       </c>
       <c r="O36" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="113"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="P36" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="113"/>
         <v>0.16831568554356421</v>
       </c>
       <c r="Q36" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="113"/>
         <v>0.18988570246335029</v>
       </c>
       <c r="R36" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="113"/>
         <v>0.20718228688765844</v>
       </c>
       <c r="S36" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="113"/>
         <v>0.29299999999999998</v>
       </c>
       <c r="T36" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="113"/>
         <v>0.43274935008616711</v>
       </c>
       <c r="U36" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="113"/>
         <v>0.52983434203531954</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" ref="Y36:AF36" si="103">Y22/Y$19</f>
+        <f t="shared" ref="Y36:AF36" si="114">Y22/Y$19</f>
         <v>-0.47777777777777813</v>
       </c>
       <c r="Z36" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="114"/>
         <v>-3.750000000000004E-2</v>
       </c>
       <c r="AA36" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="114"/>
         <v>3.7500000000000026E-2</v>
       </c>
       <c r="AB36" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AC36" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AD36" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE36" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="114"/>
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="AF36" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="114"/>
         <v>-9.9999999999988987E-5</v>
       </c>
       <c r="AI36" s="1">
-        <f t="shared" ref="AI36:AQ36" si="104">AI22/$AH22</f>
+        <f t="shared" ref="AI36:AQ36" si="115">AI22/$AH22</f>
         <v>2.0512820512820502E-2</v>
       </c>
       <c r="AJ36" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="115"/>
         <v>2.5641025641025628E-3</v>
       </c>
       <c r="AK36" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="115"/>
         <v>1.2820512820512814E-3</v>
       </c>
       <c r="AL36" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AM36" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="115"/>
         <v>-1.2820512820512814E-3</v>
       </c>
       <c r="AN36" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="115"/>
         <v>-1.2820512820512814E-3</v>
       </c>
       <c r="AO36" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="115"/>
         <v>-3.8461538461538438E-3</v>
       </c>
       <c r="AP36" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="115"/>
         <v>-5.1282051282052681E-4</v>
       </c>
       <c r="AT36" s="1">
@@ -9501,35 +9855,35 @@
         <v>7.3025274859020682E-3</v>
       </c>
       <c r="AU36" s="1">
-        <f t="shared" ref="AU36:BB36" si="105">AU22/$AS22</f>
+        <f t="shared" ref="AU36:BB36" si="116">AU22/$AS22</f>
         <v>1.6227838857560152E-3</v>
       </c>
       <c r="AV36" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="116"/>
         <v>1.2170879143170114E-3</v>
       </c>
       <c r="AW36" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="116"/>
         <v>8.1139194287800762E-4</v>
       </c>
       <c r="AX36" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="116"/>
         <v>8.1139194287800762E-4</v>
       </c>
       <c r="AY36" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="116"/>
         <v>1.2170879143170114E-3</v>
       </c>
       <c r="AZ36" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="BB36" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="116"/>
         <v>-2.028479857195019E-4</v>
       </c>
       <c r="BF36">
@@ -9537,2270 +9891,2974 @@
         <v>-0.47733495726495762</v>
       </c>
       <c r="BG36">
-        <f t="shared" ref="BG36:BM36" si="106">(Z7+($O$1*$BD7*AK7))</f>
+        <f t="shared" ref="BG36:BM36" si="117">(Z7+($O$1*$BD7*AK7))</f>
         <v>-3.7278589743589781E-2</v>
       </c>
       <c r="BH36">
-        <f t="shared" si="106"/>
+        <f t="shared" si="117"/>
         <v>3.7500000000000026E-2</v>
       </c>
       <c r="BI36">
-        <f t="shared" si="106"/>
+        <f t="shared" si="117"/>
         <v>-2.2141025641025629E-4</v>
       </c>
       <c r="BJ36">
-        <f t="shared" si="106"/>
+        <f t="shared" si="117"/>
         <v>-2.2141025641025629E-4</v>
       </c>
       <c r="BK36">
-        <f t="shared" si="106"/>
+        <f t="shared" si="117"/>
         <v>-6.6423076923076874E-4</v>
       </c>
       <c r="BL36">
-        <f t="shared" si="106"/>
+        <f t="shared" si="117"/>
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="BM36">
-        <f t="shared" si="106"/>
+        <f t="shared" si="117"/>
         <v>-1.8856410256409394E-4</v>
       </c>
+      <c r="BQ36" s="36">
+        <f>(AU7-N7*(AJ7^2)*SQRT(BQ$4))</f>
+        <v>1.624720662010283E-3</v>
+      </c>
+      <c r="BR36" s="36">
+        <f t="shared" ref="BR36:BX36" si="118">(AV7-O7*(AK7^2)*SQRT(BR$4))</f>
+        <v>1.2175543592591112E-3</v>
+      </c>
+      <c r="BS36" s="36">
+        <f t="shared" si="118"/>
+        <v>8.1139194287800762E-4</v>
+      </c>
+      <c r="BT36" s="36">
+        <f t="shared" si="118"/>
+        <v>8.1180191369501279E-4</v>
+      </c>
+      <c r="BU36" s="36">
+        <f t="shared" si="118"/>
+        <v>1.2174741336951167E-3</v>
+      </c>
+      <c r="BV36" s="36">
+        <f t="shared" si="118"/>
+        <v>2.139955964836563E-6</v>
+      </c>
+      <c r="BW36" s="36">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="BX36" s="36">
+        <f t="shared" si="118"/>
+        <v>-2.0291250860393249E-4</v>
+      </c>
     </row>
-    <row r="37" spans="13:65" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:76" x14ac:dyDescent="0.25">
       <c r="M37" s="34">
-        <f t="shared" ref="M37:U37" si="107">B8*SQRT(M$4)</f>
+        <f t="shared" ref="M37:U37" si="119">B8*SQRT(M$4)</f>
         <v>9.899494936611665E-2</v>
       </c>
       <c r="N37" s="34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>0.12245623708084452</v>
       </c>
       <c r="O37" s="34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>0.14699999999999999</v>
       </c>
       <c r="P37" s="34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>0.16946459807287184</v>
       </c>
       <c r="Q37" s="34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>0.19053377653319106</v>
       </c>
       <c r="R37" s="34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>0.20718228688765844</v>
       </c>
       <c r="S37" s="34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>0.29299999999999998</v>
       </c>
       <c r="T37" s="34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>0.43133513652379402</v>
       </c>
       <c r="U37" s="34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>0.52758267598547992</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" ref="Y37:AF37" si="108">Y23/Y$19</f>
+        <f t="shared" ref="Y37:AF37" si="120">Y23/Y$19</f>
         <v>-0.58888888888888868</v>
       </c>
       <c r="Z37" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>-3.750000000000004E-2</v>
       </c>
       <c r="AA37" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>1.2500000000000009E-2</v>
       </c>
       <c r="AB37" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>-1.1111111111111125E-2</v>
       </c>
       <c r="AC37" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>-1.2500000000000009E-2</v>
       </c>
       <c r="AD37" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AE37" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>1.2000000000000011E-2</v>
       </c>
       <c r="AF37" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>-4.0000000000001146E-4</v>
       </c>
       <c r="AI37" s="1">
-        <f t="shared" ref="AI37:AQ37" si="109">AI23/$AH23</f>
+        <f t="shared" ref="AI37:AQ37" si="121">AI23/$AH23</f>
         <v>1.7721518987341738E-2</v>
       </c>
       <c r="AJ37" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>5.063291139240516E-3</v>
       </c>
       <c r="AK37" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>5.063291139240516E-3</v>
       </c>
       <c r="AL37" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>2.531645569620258E-3</v>
       </c>
       <c r="AM37" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>1.265822784810129E-3</v>
       </c>
       <c r="AN37" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AO37" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>-1.265822784810129E-3</v>
       </c>
       <c r="AQ37" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>-1.645569620253196E-3</v>
       </c>
       <c r="AT37" s="1">
-        <f t="shared" ref="AT37:BB37" si="110">AT23/$AS23</f>
+        <f t="shared" ref="AT37:BB37" si="122">AT23/$AS23</f>
         <v>-8.1139194287803017E-4</v>
       </c>
       <c r="AU37" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>8.1139194287800762E-4</v>
       </c>
       <c r="AV37" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>1.2170879143170114E-3</v>
       </c>
       <c r="AW37" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>8.1139194287800762E-4</v>
       </c>
       <c r="AX37" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>8.1139194287800762E-4</v>
       </c>
       <c r="AY37" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>4.0569597143900381E-4</v>
       </c>
       <c r="AZ37" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>1.2170879143170114E-3</v>
       </c>
       <c r="BA37" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>-4.0569597143900381E-4</v>
       </c>
       <c r="BB37" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>-3.6512637429510794E-4</v>
       </c>
       <c r="BF37">
-        <f t="shared" ref="BF37:BM37" si="111">(Y8+($O$1*$BD8*AJ8))</f>
+        <f t="shared" ref="BF37:BM37" si="123">(Y8+($O$1*$BD8*AJ8))</f>
         <v>-0.58797445850914187</v>
       </c>
       <c r="BG37">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-3.6585569620253201E-2</v>
       </c>
       <c r="BH37">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>1.2957215189873427E-2</v>
       </c>
       <c r="BI37">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-1.0882503516174416E-2</v>
       </c>
       <c r="BJ37">
-        <f t="shared" si="111"/>
-        <v>-1.2500000000000009E-2</v>
-      </c>
-      <c r="BK37">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="BL37">
-        <f t="shared" si="111"/>
-        <v>1.1771392405063301E-2</v>
-      </c>
-      <c r="BM37">
-        <f t="shared" si="111"/>
-        <v>-6.971898734177386E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="13:65" x14ac:dyDescent="0.25">
-      <c r="M38" s="34">
-        <f t="shared" ref="M38:U38" si="112">B9*SQRT(M$4)</f>
-        <v>9.899494936611665E-2</v>
-      </c>
-      <c r="N38" s="34">
-        <f t="shared" si="112"/>
-        <v>0.12657934270646218</v>
-      </c>
-      <c r="O38" s="34">
-        <f t="shared" si="112"/>
-        <v>0.151</v>
-      </c>
-      <c r="P38" s="34">
-        <f t="shared" si="112"/>
-        <v>0.17176242313148704</v>
-      </c>
-      <c r="Q38" s="34">
-        <f t="shared" si="112"/>
-        <v>0.19247799874271343</v>
-      </c>
-      <c r="R38" s="34">
-        <f t="shared" si="112"/>
-        <v>0.20859650045003153</v>
-      </c>
-      <c r="S38" s="34">
-        <f t="shared" si="112"/>
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="T38" s="34">
-        <f t="shared" si="112"/>
-        <v>0.42850670939904784</v>
-      </c>
-      <c r="U38" s="34">
-        <f t="shared" si="112"/>
-        <v>0.52550421501639732</v>
-      </c>
-      <c r="Y38" s="1">
-        <f t="shared" ref="Y38:AF38" si="113">Y24/Y$19</f>
-        <v>-0.47777777777777752</v>
-      </c>
-      <c r="Z38" s="1">
-        <f t="shared" si="113"/>
-        <v>-6.2500000000000069E-2</v>
-      </c>
-      <c r="AA38" s="1">
-        <f t="shared" si="113"/>
-        <v>-3.7500000000000026E-2</v>
-      </c>
-      <c r="AB38" s="1">
-        <f t="shared" si="113"/>
-        <v>-2.2222222222222251E-2</v>
-      </c>
-      <c r="AC38" s="1">
-        <f t="shared" si="113"/>
-        <v>-2.5000000000000019E-2</v>
-      </c>
-      <c r="AD38" s="1">
-        <f t="shared" si="113"/>
-        <v>-6.0000000000000053E-3</v>
-      </c>
-      <c r="AE38" s="1">
-        <f t="shared" si="113"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-      <c r="AF38" s="1">
-        <f t="shared" si="113"/>
-        <v>4.0000000000001146E-4</v>
-      </c>
-      <c r="AI38" s="1">
-        <f t="shared" ref="AI38:AQ38" si="114">AI24/$AH24</f>
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <f t="shared" si="114"/>
-        <v>1.2820512820512813E-2</v>
-      </c>
-      <c r="AK38" s="1">
-        <f t="shared" si="114"/>
-        <v>1.0256410256410251E-2</v>
-      </c>
-      <c r="AL38" s="1">
-        <f t="shared" si="114"/>
-        <v>5.1282051282051256E-3</v>
-      </c>
-      <c r="AM38" s="1">
-        <f t="shared" si="114"/>
-        <v>3.8461538461538438E-3</v>
-      </c>
-      <c r="AN38" s="1">
-        <f t="shared" si="114"/>
-        <v>2.5641025641025628E-3</v>
-      </c>
-      <c r="AO38" s="1">
-        <f t="shared" si="114"/>
-        <v>-1.2820512820512814E-3</v>
-      </c>
-      <c r="AP38" s="1">
-        <f t="shared" si="114"/>
-        <v>-2.5641025641025628E-3</v>
-      </c>
-      <c r="AQ38" s="1">
-        <f t="shared" si="114"/>
-        <v>-1.5384615384615092E-3</v>
-      </c>
-      <c r="AT38" s="1">
-        <f t="shared" ref="AT38:BB38" si="115">AT24/$AS24</f>
-        <v>-5.6797436001460311E-3</v>
-      </c>
-      <c r="AU38" s="1">
-        <f t="shared" si="115"/>
-        <v>2.4341758286340227E-3</v>
-      </c>
-      <c r="AV38" s="1">
-        <f t="shared" si="115"/>
-        <v>1.6227838857560152E-3</v>
-      </c>
-      <c r="AW38" s="1">
-        <f t="shared" si="115"/>
-        <v>8.1139194287800762E-4</v>
-      </c>
-      <c r="AX38" s="1">
-        <f t="shared" si="115"/>
-        <v>8.1139194287800762E-4</v>
-      </c>
-      <c r="AY38" s="1">
-        <f t="shared" si="115"/>
-        <v>8.1139194287800762E-4</v>
-      </c>
-      <c r="AZ38" s="1">
-        <f t="shared" si="115"/>
-        <v>-4.0569597143900381E-4</v>
-      </c>
-      <c r="BA38" s="1">
-        <f t="shared" si="115"/>
-        <v>-4.0569597143900381E-4</v>
-      </c>
-      <c r="BB38" s="1">
-        <f t="shared" si="115"/>
-        <v>4.0569597143918396E-5</v>
-      </c>
-      <c r="BF38">
-        <f t="shared" ref="BF38:BM38" si="116">(Y9+($O$1*$BD9*AJ9))</f>
-        <v>-0.47536239316239293</v>
-      </c>
-      <c r="BG38">
-        <f t="shared" si="116"/>
-        <v>-6.0567692307692378E-2</v>
-      </c>
-      <c r="BH38">
-        <f t="shared" si="116"/>
-        <v>-3.6533846153846181E-2</v>
-      </c>
-      <c r="BI38">
-        <f t="shared" si="116"/>
-        <v>-2.1497606837606868E-2</v>
-      </c>
-      <c r="BJ38">
-        <f t="shared" si="116"/>
-        <v>-2.4516923076923096E-2</v>
-      </c>
-      <c r="BK38">
-        <f t="shared" si="116"/>
-        <v>-6.2415384615384668E-3</v>
-      </c>
-      <c r="BL38">
-        <f t="shared" si="116"/>
-        <v>1.0516923076923087E-2</v>
-      </c>
-      <c r="BM38">
-        <f t="shared" si="116"/>
-        <v>1.1015384615386311E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="13:65" x14ac:dyDescent="0.25">
-      <c r="M39" s="34">
-        <f t="shared" ref="M39:U39" si="117">B10*SQRT(M$4)</f>
-        <v>9.899494936611665E-2</v>
-      </c>
-      <c r="N39" s="34">
-        <f t="shared" si="117"/>
-        <v>0.12781627439414747</v>
-      </c>
-      <c r="O39" s="34">
-        <f t="shared" si="117"/>
-        <v>0.1525</v>
-      </c>
-      <c r="P39" s="34">
-        <f t="shared" si="117"/>
-        <v>0.17348579192544844</v>
-      </c>
-      <c r="Q39" s="34">
-        <f t="shared" si="117"/>
-        <v>0.193774146882395</v>
-      </c>
-      <c r="R39" s="34">
-        <f t="shared" si="117"/>
-        <v>0.21001071401240462</v>
-      </c>
-      <c r="S39" s="34">
-        <f t="shared" si="117"/>
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="T39" s="34">
-        <f t="shared" si="117"/>
-        <v>0.42709249583667475</v>
-      </c>
-      <c r="U39" s="34">
-        <f t="shared" si="117"/>
-        <v>0.52342575404731473</v>
-      </c>
-      <c r="Y39" s="1">
-        <f t="shared" ref="Y39:AF39" si="118">Y25/Y$19</f>
-        <v>-0.4444444444444442</v>
-      </c>
-      <c r="Z39" s="1">
-        <f t="shared" si="118"/>
-        <v>-6.2500000000000069E-2</v>
-      </c>
-      <c r="AA39" s="1">
-        <f t="shared" si="118"/>
-        <v>-3.7500000000000026E-2</v>
-      </c>
-      <c r="AB39" s="1">
-        <f t="shared" si="118"/>
-        <v>-3.3333333333333375E-2</v>
-      </c>
-      <c r="AC39" s="1">
-        <f t="shared" si="118"/>
-        <v>-2.5000000000000019E-2</v>
-      </c>
-      <c r="AD39" s="1">
-        <f t="shared" si="118"/>
-        <v>-1.2000000000000011E-2</v>
-      </c>
-      <c r="AE39" s="1">
-        <f t="shared" si="118"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-      <c r="AF39" s="1">
-        <f t="shared" si="118"/>
-        <v>2.0000000000003348E-4</v>
-      </c>
-      <c r="AI39" s="1">
-        <f t="shared" ref="AI39:AQ39" si="119">AI25/$AH25</f>
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <f t="shared" si="119"/>
-        <v>3.7974683544303874E-3</v>
-      </c>
-      <c r="AK39" s="1">
-        <f t="shared" si="119"/>
-        <v>3.7974683544303874E-3</v>
-      </c>
-      <c r="AL39" s="1">
-        <f t="shared" si="119"/>
-        <v>3.7974683544303874E-3</v>
-      </c>
-      <c r="AM39" s="1">
-        <f t="shared" si="119"/>
-        <v>2.531645569620258E-3</v>
-      </c>
-      <c r="AN39" s="1">
-        <f t="shared" si="119"/>
-        <v>2.531645569620258E-3</v>
-      </c>
-      <c r="AO39" s="1">
-        <f t="shared" si="119"/>
-        <v>-1.265822784810129E-3</v>
-      </c>
-      <c r="AP39" s="1">
-        <f t="shared" si="119"/>
-        <v>-1.265822784810129E-3</v>
-      </c>
-      <c r="AQ39" s="1">
-        <f t="shared" si="119"/>
-        <v>-1.5189873417721267E-3</v>
-      </c>
-      <c r="AT39" s="1">
-        <f t="shared" ref="AT39:BB39" si="120">AT25/$AS25</f>
-        <v>0</v>
-      </c>
-      <c r="AU39" s="1">
-        <f t="shared" si="120"/>
-        <v>-2.8398718000730268E-3</v>
-      </c>
-      <c r="AV39" s="1">
-        <f t="shared" si="120"/>
-        <v>-2.0284798571950191E-3</v>
-      </c>
-      <c r="AW39" s="1">
-        <f t="shared" si="120"/>
-        <v>-4.0569597143900381E-4</v>
-      </c>
-      <c r="AX39" s="1">
-        <f t="shared" si="120"/>
-        <v>-4.0569597143900381E-4</v>
-      </c>
-      <c r="AY39" s="1">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="1">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="BA39" s="1">
-        <f t="shared" si="120"/>
-        <v>4.0569597143900381E-4</v>
-      </c>
-      <c r="BB39" s="1">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="BF39">
-        <f t="shared" ref="BF39:BM39" si="121">(Y10+($O$1*$BD10*AJ10))</f>
-        <v>-0.44369900140646951</v>
-      </c>
-      <c r="BG39">
-        <f t="shared" si="121"/>
-        <v>-6.1754556962025385E-2</v>
-      </c>
-      <c r="BH39">
-        <f t="shared" si="121"/>
-        <v>-3.6754556962025342E-2</v>
-      </c>
-      <c r="BI39">
-        <f t="shared" si="121"/>
-        <v>-3.2836371308016921E-2</v>
-      </c>
-      <c r="BJ39">
-        <f t="shared" si="121"/>
-        <v>-2.4503037974683561E-2</v>
-      </c>
-      <c r="BK39">
-        <f t="shared" si="121"/>
-        <v>-1.2248481012658239E-2</v>
-      </c>
-      <c r="BL39">
-        <f t="shared" si="121"/>
-        <v>1.0751518987341781E-2</v>
-      </c>
-      <c r="BM39">
-        <f t="shared" si="121"/>
-        <v>-9.8177215189834991E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="13:65" x14ac:dyDescent="0.25">
-      <c r="M40" s="34">
-        <f t="shared" ref="M40:U40" si="122">B11*SQRT(M$4)</f>
-        <v>9.899494936611665E-2</v>
-      </c>
-      <c r="N40" s="34">
-        <f t="shared" si="122"/>
-        <v>0.12781627439414747</v>
-      </c>
-      <c r="O40" s="34">
-        <f t="shared" si="122"/>
-        <v>0.1535</v>
-      </c>
-      <c r="P40" s="34">
-        <f t="shared" si="122"/>
-        <v>0.17578361698406367</v>
-      </c>
-      <c r="Q40" s="34">
-        <f t="shared" si="122"/>
-        <v>0.19701451723159893</v>
-      </c>
-      <c r="R40" s="34">
-        <f t="shared" si="122"/>
-        <v>0.21213203435596426</v>
-      </c>
-      <c r="S40" s="34">
-        <f t="shared" si="122"/>
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="T40" s="34">
-        <f t="shared" si="122"/>
-        <v>0.42284985514955542</v>
-      </c>
-      <c r="U40" s="34">
-        <f t="shared" si="122"/>
-        <v>0.51770998638233734</v>
-      </c>
-      <c r="Y40" s="1">
-        <f t="shared" ref="Y40:AF40" si="123">Y26/Y$19</f>
-        <v>-0.4444444444444442</v>
-      </c>
-      <c r="Z40" s="1">
-        <f t="shared" si="123"/>
-        <v>-3.750000000000004E-2</v>
-      </c>
-      <c r="AA40" s="1">
         <f t="shared" si="123"/>
         <v>-1.2500000000000009E-2</v>
       </c>
+      <c r="BK37">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BL37">
+        <f t="shared" si="123"/>
+        <v>1.1771392405063301E-2</v>
+      </c>
+      <c r="BM37">
+        <f t="shared" si="123"/>
+        <v>-6.971898734177386E-4</v>
+      </c>
+      <c r="BQ37" s="36">
+        <f t="shared" ref="BQ37:BX37" si="124">(AU8-N8*(AJ8^2)*SQRT(BQ$4))</f>
+        <v>8.2268608997927847E-4</v>
+      </c>
+      <c r="BR37" s="36">
+        <f t="shared" si="124"/>
+        <v>1.228139198888717E-3</v>
+      </c>
+      <c r="BS37" s="36">
+        <f t="shared" si="124"/>
+        <v>8.1405078906757579E-4</v>
+      </c>
+      <c r="BT37" s="36">
+        <f t="shared" si="124"/>
+        <v>8.1203334146140763E-4</v>
+      </c>
+      <c r="BU37" s="36">
+        <f t="shared" si="124"/>
+        <v>4.0569597143900381E-4</v>
+      </c>
+      <c r="BV37" s="36">
+        <f t="shared" si="124"/>
+        <v>1.2170879143170114E-3</v>
+      </c>
+      <c r="BW37" s="36">
+        <f t="shared" si="124"/>
+        <v>-4.055540551549143E-4</v>
+      </c>
+      <c r="BX37" s="36">
+        <f t="shared" si="124"/>
+        <v>-3.6538536632900806E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="13:76" x14ac:dyDescent="0.25">
+      <c r="M38" s="34">
+        <f t="shared" ref="M38:U38" si="125">B9*SQRT(M$4)</f>
+        <v>9.899494936611665E-2</v>
+      </c>
+      <c r="N38" s="34">
+        <f t="shared" si="125"/>
+        <v>0.12657934270646218</v>
+      </c>
+      <c r="O38" s="34">
+        <f t="shared" si="125"/>
+        <v>0.151</v>
+      </c>
+      <c r="P38" s="34">
+        <f t="shared" si="125"/>
+        <v>0.17176242313148704</v>
+      </c>
+      <c r="Q38" s="34">
+        <f t="shared" si="125"/>
+        <v>0.19247799874271343</v>
+      </c>
+      <c r="R38" s="34">
+        <f t="shared" si="125"/>
+        <v>0.20859650045003153</v>
+      </c>
+      <c r="S38" s="34">
+        <f t="shared" si="125"/>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="T38" s="34">
+        <f t="shared" si="125"/>
+        <v>0.42850670939904784</v>
+      </c>
+      <c r="U38" s="34">
+        <f t="shared" si="125"/>
+        <v>0.52550421501639732</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" ref="Y38:AF38" si="126">Y24/Y$19</f>
+        <v>-0.47777777777777752</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="126"/>
+        <v>-6.2500000000000069E-2</v>
+      </c>
+      <c r="AA38" s="1">
+        <f t="shared" si="126"/>
+        <v>-3.7500000000000026E-2</v>
+      </c>
+      <c r="AB38" s="1">
+        <f t="shared" si="126"/>
+        <v>-2.2222222222222251E-2</v>
+      </c>
+      <c r="AC38" s="1">
+        <f t="shared" si="126"/>
+        <v>-2.5000000000000019E-2</v>
+      </c>
+      <c r="AD38" s="1">
+        <f t="shared" si="126"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+      <c r="AE38" s="1">
+        <f t="shared" si="126"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="AF38" s="1">
+        <f t="shared" si="126"/>
+        <v>4.0000000000001146E-4</v>
+      </c>
+      <c r="AI38" s="1">
+        <f t="shared" ref="AI38:AQ38" si="127">AI24/$AH24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="1">
+        <f t="shared" si="127"/>
+        <v>1.2820512820512813E-2</v>
+      </c>
+      <c r="AK38" s="1">
+        <f t="shared" si="127"/>
+        <v>1.0256410256410251E-2</v>
+      </c>
+      <c r="AL38" s="1">
+        <f t="shared" si="127"/>
+        <v>5.1282051282051256E-3</v>
+      </c>
+      <c r="AM38" s="1">
+        <f t="shared" si="127"/>
+        <v>3.8461538461538438E-3</v>
+      </c>
+      <c r="AN38" s="1">
+        <f t="shared" si="127"/>
+        <v>2.5641025641025628E-3</v>
+      </c>
+      <c r="AO38" s="1">
+        <f t="shared" si="127"/>
+        <v>-1.2820512820512814E-3</v>
+      </c>
+      <c r="AP38" s="1">
+        <f t="shared" si="127"/>
+        <v>-2.5641025641025628E-3</v>
+      </c>
+      <c r="AQ38" s="1">
+        <f t="shared" si="127"/>
+        <v>-1.5384615384615092E-3</v>
+      </c>
+      <c r="AT38" s="1">
+        <f t="shared" ref="AT38:BB38" si="128">AT24/$AS24</f>
+        <v>-5.6797436001460311E-3</v>
+      </c>
+      <c r="AU38" s="1">
+        <f t="shared" si="128"/>
+        <v>2.4341758286340227E-3</v>
+      </c>
+      <c r="AV38" s="1">
+        <f t="shared" si="128"/>
+        <v>1.6227838857560152E-3</v>
+      </c>
+      <c r="AW38" s="1">
+        <f t="shared" si="128"/>
+        <v>8.1139194287800762E-4</v>
+      </c>
+      <c r="AX38" s="1">
+        <f t="shared" si="128"/>
+        <v>8.1139194287800762E-4</v>
+      </c>
+      <c r="AY38" s="1">
+        <f t="shared" si="128"/>
+        <v>8.1139194287800762E-4</v>
+      </c>
+      <c r="AZ38" s="1">
+        <f t="shared" si="128"/>
+        <v>-4.0569597143900381E-4</v>
+      </c>
+      <c r="BA38" s="1">
+        <f t="shared" si="128"/>
+        <v>-4.0569597143900381E-4</v>
+      </c>
+      <c r="BB38" s="1">
+        <f t="shared" si="128"/>
+        <v>4.0569597143918396E-5</v>
+      </c>
+      <c r="BF38">
+        <f t="shared" ref="BF38:BM38" si="129">(Y9+($O$1*$BD9*AJ9))</f>
+        <v>-0.47536239316239293</v>
+      </c>
+      <c r="BG38">
+        <f t="shared" si="129"/>
+        <v>-6.0567692307692378E-2</v>
+      </c>
+      <c r="BH38">
+        <f t="shared" si="129"/>
+        <v>-3.6533846153846181E-2</v>
+      </c>
+      <c r="BI38">
+        <f t="shared" si="129"/>
+        <v>-2.1497606837606868E-2</v>
+      </c>
+      <c r="BJ38">
+        <f t="shared" si="129"/>
+        <v>-2.4516923076923096E-2</v>
+      </c>
+      <c r="BK38">
+        <f t="shared" si="129"/>
+        <v>-6.2415384615384668E-3</v>
+      </c>
+      <c r="BL38">
+        <f t="shared" si="129"/>
+        <v>1.0516923076923087E-2</v>
+      </c>
+      <c r="BM38">
+        <f t="shared" si="129"/>
+        <v>1.1015384615386311E-4</v>
+      </c>
+      <c r="BQ38" s="36">
+        <f t="shared" ref="BQ38:BX38" si="130">(AU9-N9*(AJ9^2)*SQRT(BQ$4))</f>
+        <v>2.5265901667676622E-3</v>
+      </c>
+      <c r="BR38" s="36">
+        <f t="shared" si="130"/>
+        <v>1.6814490395782931E-3</v>
+      </c>
+      <c r="BS38" s="36">
+        <f t="shared" si="130"/>
+        <v>8.2584031378290471E-4</v>
+      </c>
+      <c r="BT38" s="36">
+        <f t="shared" si="130"/>
+        <v>8.1934114230790593E-4</v>
+      </c>
+      <c r="BU38" s="36">
+        <f t="shared" si="130"/>
+        <v>8.1485900417340774E-4</v>
+      </c>
+      <c r="BV38" s="36">
+        <f t="shared" si="130"/>
+        <v>-4.0496595448011574E-4</v>
+      </c>
+      <c r="BW38" s="36">
+        <f t="shared" si="130"/>
+        <v>-4.041659602036919E-4</v>
+      </c>
+      <c r="BX38" s="36">
+        <f t="shared" si="130"/>
+        <v>4.0680718180797896E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="13:76" x14ac:dyDescent="0.25">
+      <c r="M39" s="34">
+        <f t="shared" ref="M39:U39" si="131">B10*SQRT(M$4)</f>
+        <v>9.899494936611665E-2</v>
+      </c>
+      <c r="N39" s="34">
+        <f t="shared" si="131"/>
+        <v>0.12781627439414747</v>
+      </c>
+      <c r="O39" s="34">
+        <f t="shared" si="131"/>
+        <v>0.1525</v>
+      </c>
+      <c r="P39" s="34">
+        <f t="shared" si="131"/>
+        <v>0.17348579192544844</v>
+      </c>
+      <c r="Q39" s="34">
+        <f t="shared" si="131"/>
+        <v>0.193774146882395</v>
+      </c>
+      <c r="R39" s="34">
+        <f t="shared" si="131"/>
+        <v>0.21001071401240462</v>
+      </c>
+      <c r="S39" s="34">
+        <f t="shared" si="131"/>
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="T39" s="34">
+        <f t="shared" si="131"/>
+        <v>0.42709249583667475</v>
+      </c>
+      <c r="U39" s="34">
+        <f t="shared" si="131"/>
+        <v>0.52342575404731473</v>
+      </c>
+      <c r="Y39" s="1">
+        <f t="shared" ref="Y39:AF39" si="132">Y25/Y$19</f>
+        <v>-0.4444444444444442</v>
+      </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="132"/>
+        <v>-6.2500000000000069E-2</v>
+      </c>
+      <c r="AA39" s="1">
+        <f t="shared" si="132"/>
+        <v>-3.7500000000000026E-2</v>
+      </c>
+      <c r="AB39" s="1">
+        <f t="shared" si="132"/>
+        <v>-3.3333333333333375E-2</v>
+      </c>
+      <c r="AC39" s="1">
+        <f t="shared" si="132"/>
+        <v>-2.5000000000000019E-2</v>
+      </c>
+      <c r="AD39" s="1">
+        <f t="shared" si="132"/>
+        <v>-1.2000000000000011E-2</v>
+      </c>
+      <c r="AE39" s="1">
+        <f t="shared" si="132"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="AF39" s="1">
+        <f t="shared" si="132"/>
+        <v>2.0000000000003348E-4</v>
+      </c>
+      <c r="AI39" s="1">
+        <f t="shared" ref="AI39:AQ39" si="133">AI25/$AH25</f>
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="1">
+        <f t="shared" si="133"/>
+        <v>3.7974683544303874E-3</v>
+      </c>
+      <c r="AK39" s="1">
+        <f t="shared" si="133"/>
+        <v>3.7974683544303874E-3</v>
+      </c>
+      <c r="AL39" s="1">
+        <f t="shared" si="133"/>
+        <v>3.7974683544303874E-3</v>
+      </c>
+      <c r="AM39" s="1">
+        <f t="shared" si="133"/>
+        <v>2.531645569620258E-3</v>
+      </c>
+      <c r="AN39" s="1">
+        <f t="shared" si="133"/>
+        <v>2.531645569620258E-3</v>
+      </c>
+      <c r="AO39" s="1">
+        <f t="shared" si="133"/>
+        <v>-1.265822784810129E-3</v>
+      </c>
+      <c r="AP39" s="1">
+        <f t="shared" si="133"/>
+        <v>-1.265822784810129E-3</v>
+      </c>
+      <c r="AQ39" s="1">
+        <f t="shared" si="133"/>
+        <v>-1.5189873417721267E-3</v>
+      </c>
+      <c r="AT39" s="1">
+        <f t="shared" ref="AT39:BB39" si="134">AT25/$AS25</f>
+        <v>0</v>
+      </c>
+      <c r="AU39" s="1">
+        <f t="shared" si="134"/>
+        <v>-2.8398718000730268E-3</v>
+      </c>
+      <c r="AV39" s="1">
+        <f t="shared" si="134"/>
+        <v>-2.0284798571950191E-3</v>
+      </c>
+      <c r="AW39" s="1">
+        <f t="shared" si="134"/>
+        <v>-4.0569597143900381E-4</v>
+      </c>
+      <c r="AX39" s="1">
+        <f t="shared" si="134"/>
+        <v>-4.0569597143900381E-4</v>
+      </c>
+      <c r="AY39" s="1">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="1">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="BA39" s="1">
+        <f t="shared" si="134"/>
+        <v>4.0569597143900381E-4</v>
+      </c>
+      <c r="BB39" s="1">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <f t="shared" ref="BF39:BM39" si="135">(Y10+($O$1*$BD10*AJ10))</f>
+        <v>-0.44369900140646951</v>
+      </c>
+      <c r="BG39">
+        <f t="shared" si="135"/>
+        <v>-6.1754556962025385E-2</v>
+      </c>
+      <c r="BH39">
+        <f t="shared" si="135"/>
+        <v>-3.6754556962025342E-2</v>
+      </c>
+      <c r="BI39">
+        <f t="shared" si="135"/>
+        <v>-3.2836371308016921E-2</v>
+      </c>
+      <c r="BJ39">
+        <f t="shared" si="135"/>
+        <v>-2.4503037974683561E-2</v>
+      </c>
+      <c r="BK39">
+        <f t="shared" si="135"/>
+        <v>-1.2248481012658239E-2</v>
+      </c>
+      <c r="BL39">
+        <f t="shared" si="135"/>
+        <v>1.0751518987341781E-2</v>
+      </c>
+      <c r="BM39">
+        <f t="shared" si="135"/>
+        <v>-9.8177215189834991E-5</v>
+      </c>
+      <c r="BQ39" s="36">
+        <f t="shared" ref="BQ39:BX39" si="136">(AU10-N10*(AJ10^2)*SQRT(BQ$4))</f>
+        <v>-2.8299386929747693E-3</v>
+      </c>
+      <c r="BR39" s="36">
+        <f t="shared" si="136"/>
+        <v>-2.0185853124556727E-3</v>
+      </c>
+      <c r="BS39" s="36">
+        <f t="shared" si="136"/>
+        <v>-3.9590467078244525E-4</v>
+      </c>
+      <c r="BT39" s="36">
+        <f t="shared" si="136"/>
+        <v>-4.0139977103089005E-4</v>
+      </c>
+      <c r="BU39" s="36">
+        <f t="shared" si="136"/>
+        <v>4.2371273690622638E-6</v>
+      </c>
+      <c r="BV39" s="36">
+        <f t="shared" si="136"/>
+        <v>9.4188027148982109E-7</v>
+      </c>
+      <c r="BW39" s="36">
+        <f t="shared" si="136"/>
+        <v>4.0629123548510627E-4</v>
+      </c>
+      <c r="BX39" s="36">
+        <f t="shared" si="136"/>
+        <v>4.3070302768806051E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="13:76" x14ac:dyDescent="0.25">
+      <c r="M40" s="34">
+        <f t="shared" ref="M40:U40" si="137">B11*SQRT(M$4)</f>
+        <v>9.899494936611665E-2</v>
+      </c>
+      <c r="N40" s="34">
+        <f t="shared" si="137"/>
+        <v>0.12781627439414747</v>
+      </c>
+      <c r="O40" s="34">
+        <f t="shared" si="137"/>
+        <v>0.1535</v>
+      </c>
+      <c r="P40" s="34">
+        <f t="shared" si="137"/>
+        <v>0.17578361698406367</v>
+      </c>
+      <c r="Q40" s="34">
+        <f t="shared" si="137"/>
+        <v>0.19701451723159893</v>
+      </c>
+      <c r="R40" s="34">
+        <f t="shared" si="137"/>
+        <v>0.21213203435596426</v>
+      </c>
+      <c r="S40" s="34">
+        <f t="shared" si="137"/>
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="T40" s="34">
+        <f t="shared" si="137"/>
+        <v>0.42284985514955542</v>
+      </c>
+      <c r="U40" s="34">
+        <f t="shared" si="137"/>
+        <v>0.51770998638233734</v>
+      </c>
+      <c r="Y40" s="1">
+        <f t="shared" ref="Y40:AF40" si="138">Y26/Y$19</f>
+        <v>-0.4444444444444442</v>
+      </c>
+      <c r="Z40" s="1">
+        <f t="shared" si="138"/>
+        <v>-3.750000000000004E-2</v>
+      </c>
+      <c r="AA40" s="1">
+        <f t="shared" si="138"/>
+        <v>-1.2500000000000009E-2</v>
+      </c>
       <c r="AB40" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>-2.2222222222222251E-2</v>
       </c>
       <c r="AC40" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>-5.0000000000000037E-2</v>
       </c>
       <c r="AD40" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>-1.8000000000000016E-2</v>
       </c>
       <c r="AE40" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="AF40" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>-9.9999999999988987E-5</v>
       </c>
       <c r="AI40" s="1">
-        <f t="shared" ref="AI40:AQ40" si="124">AI26/$AH26</f>
+        <f t="shared" ref="AI40:AQ40" si="139">AI26/$AH26</f>
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="139"/>
         <v>2.5641025641025628E-3</v>
       </c>
       <c r="AL40" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="139"/>
         <v>5.1282051282051256E-3</v>
       </c>
       <c r="AM40" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="139"/>
         <v>6.4102564102564066E-3</v>
       </c>
       <c r="AN40" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="139"/>
         <v>3.8461538461538438E-3</v>
       </c>
       <c r="AO40" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="139"/>
         <v>-3.8461538461538438E-3</v>
       </c>
       <c r="AQ40" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="139"/>
         <v>-4.2307692307692567E-3</v>
       </c>
       <c r="AT40" s="1">
-        <f t="shared" ref="AT40:BB40" si="125">AT26/$AS26</f>
+        <f t="shared" ref="AT40:BB40" si="140">AT26/$AS26</f>
         <v>0</v>
       </c>
       <c r="AU40" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>-1.2170879143170114E-3</v>
       </c>
       <c r="AV40" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>-4.0569597143900381E-4</v>
       </c>
       <c r="AW40" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>4.0569597143900381E-4</v>
       </c>
       <c r="AX40" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>1.2170879143170114E-3</v>
       </c>
       <c r="AY40" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>4.0569597143900381E-4</v>
       </c>
       <c r="AZ40" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>4.0569597143900381E-4</v>
       </c>
       <c r="BA40" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>-8.1139194287800762E-4</v>
       </c>
       <c r="BB40" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>-8.5196154002192598E-4</v>
       </c>
       <c r="BF40">
-        <f t="shared" ref="BF40:BM40" si="126">(Y11+($O$1*$BD11*AJ11))</f>
+        <f t="shared" ref="BF40:BM40" si="141">(Y11+($O$1*$BD11*AJ11))</f>
         <v>-0.4444444444444442</v>
       </c>
       <c r="BG40">
-        <f t="shared" si="126"/>
+        <f t="shared" si="141"/>
         <v>-3.6976666666666706E-2</v>
       </c>
       <c r="BH40">
-        <f t="shared" si="126"/>
+        <f t="shared" si="141"/>
         <v>-1.1453333333333343E-2</v>
       </c>
       <c r="BI40">
-        <f t="shared" si="126"/>
+        <f t="shared" si="141"/>
         <v>-2.0913888888888919E-2</v>
       </c>
       <c r="BJ40">
-        <f t="shared" si="126"/>
+        <f t="shared" si="141"/>
         <v>-4.9215000000000036E-2</v>
       </c>
       <c r="BK40">
-        <f t="shared" si="126"/>
+        <f t="shared" si="141"/>
         <v>-1.8000000000000016E-2</v>
       </c>
       <c r="BL40">
-        <f t="shared" si="126"/>
+        <f t="shared" si="141"/>
         <v>7.2150000000000079E-3</v>
       </c>
       <c r="BM40">
-        <f t="shared" si="126"/>
+        <f t="shared" si="141"/>
         <v>-9.6349999999999431E-4</v>
       </c>
+      <c r="BQ40" s="36">
+        <f t="shared" ref="BQ40:BX40" si="142">(AU11-N11*(AJ11^2)*SQRT(BQ$4))</f>
+        <v>-1.2170879143170114E-3</v>
+      </c>
+      <c r="BR40" s="36">
+        <f t="shared" si="142"/>
+        <v>-4.0038309568506407E-4</v>
+      </c>
+      <c r="BS40" s="36">
+        <f t="shared" si="142"/>
+        <v>4.2663286146813763E-4</v>
+      </c>
+      <c r="BT40" s="36">
+        <f t="shared" si="142"/>
+        <v>1.2493604551688103E-3</v>
+      </c>
+      <c r="BU40" s="36">
+        <f t="shared" si="142"/>
+        <v>4.172770495685645E-4</v>
+      </c>
+      <c r="BV40" s="36">
+        <f t="shared" si="142"/>
+        <v>4.0569597143900381E-4</v>
+      </c>
+      <c r="BW40" s="36">
+        <f t="shared" si="142"/>
+        <v>-8.0382414961904325E-4</v>
+      </c>
+      <c r="BX40" s="36">
+        <f t="shared" si="142"/>
+        <v>-8.4607177538909744E-4</v>
+      </c>
     </row>
-    <row r="41" spans="13:65" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:76" x14ac:dyDescent="0.25">
       <c r="M41" s="34">
-        <f t="shared" ref="M41:U41" si="127">B12*SQRT(M$4)</f>
+        <f t="shared" ref="M41:U41" si="143">B12*SQRT(M$4)</f>
         <v>9.899494936611665E-2</v>
       </c>
       <c r="N41" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="143"/>
         <v>0.12781627439414747</v>
       </c>
       <c r="O41" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="143"/>
         <v>0.1545</v>
       </c>
       <c r="P41" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="143"/>
         <v>0.17923035457198649</v>
       </c>
       <c r="Q41" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="143"/>
         <v>0.20090296165064364</v>
       </c>
       <c r="R41" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="143"/>
         <v>0.21496046148071046</v>
       </c>
       <c r="S41" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="143"/>
         <v>0.29099999999999998</v>
       </c>
       <c r="T41" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="143"/>
         <v>0.41577878733768997</v>
       </c>
       <c r="U41" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="143"/>
         <v>0.50887652726373611</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" ref="Y41:AF41" si="128">Y27/Y$19</f>
+        <f t="shared" ref="Y41:AF41" si="144">Y27/Y$19</f>
         <v>-0.4444444444444442</v>
       </c>
       <c r="Z41" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="144"/>
         <v>-1.2500000000000013E-2</v>
       </c>
       <c r="AA41" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="144"/>
         <v>3.7500000000000026E-2</v>
       </c>
       <c r="AB41" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="144"/>
         <v>-2.2222222222222251E-2</v>
       </c>
       <c r="AC41" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="144"/>
         <v>-7.5000000000000053E-2</v>
       </c>
       <c r="AD41" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="144"/>
         <v>-2.6000000000000023E-2</v>
       </c>
       <c r="AE41" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="AF41" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="144"/>
         <v>-1.9999999999997797E-4</v>
       </c>
       <c r="AI41" s="1">
-        <f t="shared" ref="AI41:AQ41" si="129">AI27/$AH27</f>
+        <f t="shared" ref="AI41:AQ41" si="145">AI27/$AH27</f>
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="145"/>
         <v>2.531645569620258E-3</v>
       </c>
       <c r="AL41" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="145"/>
         <v>7.5949367088607748E-3</v>
       </c>
       <c r="AM41" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="145"/>
         <v>7.5949367088607748E-3</v>
       </c>
       <c r="AN41" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="145"/>
         <v>5.063291139240516E-3</v>
       </c>
       <c r="AO41" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="145"/>
         <v>-6.329113924050645E-3</v>
       </c>
       <c r="AQ41" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="145"/>
         <v>-6.4556962025316446E-3</v>
       </c>
       <c r="AT41" s="1">
-        <f t="shared" ref="AT41:BB41" si="130">AT27/$AS27</f>
+        <f t="shared" ref="AT41:BB41" si="146">AT27/$AS27</f>
         <v>0</v>
       </c>
       <c r="AU41" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AV41" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AW41" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>8.1139194287800762E-4</v>
       </c>
       <c r="AX41" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>4.0569597143900381E-4</v>
       </c>
       <c r="AY41" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>4.0569597143900381E-4</v>
       </c>
       <c r="AZ41" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>-8.1139194287800762E-4</v>
       </c>
       <c r="BB41" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>-7.3025274859019333E-4</v>
       </c>
       <c r="BF41">
-        <f t="shared" ref="BF41:BM41" si="131">(Y12+($O$1*$BD12*AJ12))</f>
+        <f t="shared" ref="BF41:BM41" si="147">(Y12+($O$1*$BD12*AJ12))</f>
         <v>-0.4444444444444442</v>
       </c>
       <c r="BG41">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>-1.1963291139240518E-2</v>
       </c>
       <c r="BH41">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>3.9110126582278512E-2</v>
       </c>
       <c r="BI41">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>-2.0612095639943765E-2</v>
       </c>
       <c r="BJ41">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>-7.3926582278481062E-2</v>
       </c>
       <c r="BK41">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>-2.6000000000000023E-2</v>
       </c>
       <c r="BL41">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>1.658227848101266E-3</v>
       </c>
       <c r="BM41">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>-1.5686075949366866E-3</v>
       </c>
+      <c r="BQ41" s="36">
+        <f t="shared" ref="BQ41:BX41" si="148">(AU12-N12*(AJ12^2)*SQRT(BQ$4))</f>
+        <v>0</v>
+      </c>
+      <c r="BR41" s="36">
+        <f t="shared" si="148"/>
+        <v>5.9302035827115806E-6</v>
+      </c>
+      <c r="BS41" s="36">
+        <f t="shared" si="148"/>
+        <v>8.6333974019667671E-4</v>
+      </c>
+      <c r="BT41" s="36">
+        <f t="shared" si="148"/>
+        <v>4.5704496377198083E-4</v>
+      </c>
+      <c r="BU41" s="36">
+        <f t="shared" si="148"/>
+        <v>4.2865420766326825E-4</v>
+      </c>
+      <c r="BV41" s="36">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="BW41" s="36">
+        <f t="shared" si="148"/>
+        <v>-7.8497233819505941E-4</v>
+      </c>
+      <c r="BX41" s="36">
+        <f t="shared" si="148"/>
+        <v>-7.1027112729236833E-4</v>
+      </c>
     </row>
-    <row r="42" spans="13:65" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:76" x14ac:dyDescent="0.25">
       <c r="M42" s="34">
-        <f t="shared" ref="M42:U42" si="132">B13*SQRT(M$4)</f>
+        <f t="shared" ref="M42:U42" si="149">B13*SQRT(M$4)</f>
         <v>9.899494936611665E-2</v>
       </c>
       <c r="N42" s="34">
-        <f t="shared" si="132"/>
+        <f t="shared" si="149"/>
         <v>0.12781627439414747</v>
       </c>
       <c r="O42" s="34">
-        <f t="shared" si="132"/>
+        <f t="shared" si="149"/>
         <v>0.155</v>
       </c>
       <c r="P42" s="34">
-        <f t="shared" si="132"/>
+        <f t="shared" si="149"/>
         <v>0.18037926710129409</v>
       </c>
       <c r="Q42" s="34">
-        <f t="shared" si="132"/>
+        <f t="shared" si="149"/>
         <v>0.20284718386016601</v>
       </c>
       <c r="R42" s="34">
-        <f t="shared" si="132"/>
+        <f t="shared" si="149"/>
         <v>0.2170817818242701</v>
       </c>
       <c r="S42" s="34">
-        <f t="shared" si="132"/>
+        <f t="shared" si="149"/>
         <v>0.29199999999999998</v>
       </c>
       <c r="T42" s="34">
-        <f t="shared" si="132"/>
+        <f t="shared" si="149"/>
         <v>0.40870771952582446</v>
       </c>
       <c r="U42" s="34">
-        <f t="shared" si="132"/>
+        <f t="shared" si="149"/>
         <v>0.50021627322589168</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" ref="Y42:AF42" si="133">Y28/Y$19</f>
+        <f t="shared" ref="Y42:AF42" si="150">Y28/Y$19</f>
         <v>-0.4444444444444442</v>
       </c>
       <c r="Z42" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AA42" s="1">
-        <f t="shared" si="133"/>
-        <v>5.0000000000000037E-2</v>
-      </c>
-      <c r="AB42" s="1">
-        <f t="shared" si="133"/>
-        <v>-1.1111111111111125E-2</v>
-      </c>
-      <c r="AC42" s="1">
-        <f t="shared" si="133"/>
-        <v>-7.5000000000000053E-2</v>
-      </c>
-      <c r="AD42" s="1">
-        <f t="shared" si="133"/>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-      <c r="AE42" s="1">
-        <f t="shared" si="133"/>
-        <v>-3.0000000000000027E-3</v>
-      </c>
-      <c r="AF42" s="1">
-        <f t="shared" si="133"/>
-        <v>-1.9999999999997797E-4</v>
-      </c>
-      <c r="AI42" s="1">
-        <f t="shared" ref="AI42:AQ42" si="134">AI28/$AH28</f>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="1">
-        <f t="shared" si="134"/>
-        <v>1.2820512820512814E-3</v>
-      </c>
-      <c r="AL42" s="1">
-        <f t="shared" si="134"/>
-        <v>2.5641025641025628E-3</v>
-      </c>
-      <c r="AM42" s="1">
-        <f t="shared" si="134"/>
-        <v>3.8461538461538438E-3</v>
-      </c>
-      <c r="AN42" s="1">
-        <f t="shared" si="134"/>
-        <v>3.8461538461538438E-3</v>
-      </c>
-      <c r="AO42" s="1">
-        <f t="shared" si="134"/>
-        <v>1.2820512820512814E-3</v>
-      </c>
-      <c r="AP42" s="1">
-        <f t="shared" si="134"/>
-        <v>-6.4102564102564066E-3</v>
-      </c>
-      <c r="AQ42" s="1">
-        <f t="shared" si="134"/>
-        <v>-6.4102564102564066E-3</v>
-      </c>
-      <c r="AT42" s="1">
-        <f t="shared" ref="AT42:BB42" si="135">AT28/$AS28</f>
-        <v>0</v>
-      </c>
-      <c r="AU42" s="1">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="AV42" s="1">
-        <f t="shared" si="135"/>
-        <v>-4.0569597143900381E-4</v>
-      </c>
-      <c r="AW42" s="1">
-        <f t="shared" si="135"/>
-        <v>-1.6227838857560152E-3</v>
-      </c>
-      <c r="AX42" s="1">
-        <f t="shared" si="135"/>
-        <v>-1.2170879143170114E-3</v>
-      </c>
-      <c r="AY42" s="1">
-        <f t="shared" si="135"/>
-        <v>-4.0569597143900381E-4</v>
-      </c>
-      <c r="AZ42" s="1">
-        <f t="shared" si="135"/>
-        <v>4.0569597143900381E-4</v>
-      </c>
-      <c r="BA42" s="1">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="BB42" s="1">
-        <f t="shared" si="135"/>
-        <v>4.0569597143895879E-5</v>
-      </c>
-      <c r="BF42">
-        <f t="shared" ref="BF42:BM42" si="136">(Y13+($O$1*$BD13*AJ13))</f>
-        <v>-0.4444444444444442</v>
-      </c>
-      <c r="BG42">
-        <f t="shared" si="136"/>
-        <v>2.8179487179487162E-4</v>
-      </c>
-      <c r="BH42">
-        <f t="shared" si="136"/>
-        <v>5.0563589743589779E-2</v>
-      </c>
-      <c r="BI42">
-        <f t="shared" si="136"/>
-        <v>-1.0265726495726511E-2</v>
-      </c>
-      <c r="BJ42">
-        <f t="shared" si="136"/>
-        <v>-7.4154615384615444E-2</v>
-      </c>
-      <c r="BK42">
-        <f t="shared" si="136"/>
-        <v>-2.9718205128205156E-2</v>
-      </c>
-      <c r="BL42">
-        <f t="shared" si="136"/>
-        <v>-4.4089743589743611E-3</v>
-      </c>
-      <c r="BM42">
-        <f t="shared" si="136"/>
-        <v>-1.6089743589743361E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="13:65" x14ac:dyDescent="0.25">
-      <c r="M43" s="34">
-        <f t="shared" ref="M43:M45" si="137">B14*SQRT(M$4)</f>
-        <v>9.899494936611665E-2</v>
-      </c>
-      <c r="N43" s="34">
-        <f t="shared" ref="N43:N45" si="138">C14*SQRT(N$4)</f>
-        <v>0.12781627439414747</v>
-      </c>
-      <c r="O43" s="34">
-        <f t="shared" ref="O43:O45" si="139">D14*SQRT(O$4)</f>
-        <v>0.155</v>
-      </c>
-      <c r="P43" s="34">
-        <f t="shared" ref="P43:P45" si="140">E14*SQRT(P$4)</f>
-        <v>0.18037926710129409</v>
-      </c>
-      <c r="Q43" s="34">
-        <f t="shared" ref="Q43:Q45" si="141">F14*SQRT(Q$4)</f>
-        <v>0.20349525793000681</v>
-      </c>
-      <c r="R43" s="34">
-        <f t="shared" ref="R43:R45" si="142">G14*SQRT(R$4)</f>
-        <v>0.21778888860545664</v>
-      </c>
-      <c r="S43" s="34">
-        <f t="shared" ref="S43:S45" si="143">H14*SQRT(S$4)</f>
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="T43" s="34">
-        <f t="shared" ref="T43:T45" si="144">I14*SQRT(T$4)</f>
-        <v>0.40870771952582446</v>
-      </c>
-      <c r="U43" s="34">
-        <f t="shared" ref="U43:U45" si="145">J14*SQRT(U$4)</f>
-        <v>0.5005626833874055</v>
-      </c>
-      <c r="Y43" s="1">
-        <f t="shared" ref="Y43:AF43" si="146">Y29/Y$19</f>
-        <v>-0.4444444444444442</v>
-      </c>
-      <c r="Z43" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="1">
-        <f t="shared" si="146"/>
-        <v>5.0000000000000037E-2</v>
-      </c>
-      <c r="AB43" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <f t="shared" si="146"/>
-        <v>-7.5000000000000053E-2</v>
-      </c>
-      <c r="AD43" s="1">
-        <f t="shared" si="146"/>
-        <v>-2.8000000000000025E-2</v>
-      </c>
-      <c r="AE43" s="1">
-        <f t="shared" si="146"/>
-        <v>-5.0000000000000044E-3</v>
-      </c>
-      <c r="AF43" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
-      <c r="AI43" s="1">
-        <f t="shared" ref="AI43:AQ43" si="147">AI29/$AH29</f>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AK43" s="1">
-        <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AL43" s="1">
-        <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AM43" s="1">
-        <f t="shared" si="147"/>
-        <v>1.265822784810129E-3</v>
-      </c>
-      <c r="AN43" s="1">
-        <f t="shared" si="147"/>
-        <v>1.265822784810129E-3</v>
-      </c>
-      <c r="AO43" s="1">
-        <f t="shared" si="147"/>
-        <v>2.531645569620258E-3</v>
-      </c>
-      <c r="AP43" s="1">
-        <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="1">
-        <f t="shared" si="147"/>
-        <v>2.5316455696199768E-4</v>
-      </c>
-      <c r="AT43" s="1">
-        <f t="shared" ref="AT43:BB43" si="148">AT29/$AS29</f>
-        <v>0</v>
-      </c>
-      <c r="AU43" s="1">
-        <f t="shared" si="148"/>
-        <v>0</v>
-      </c>
-      <c r="AV43" s="1">
-        <f t="shared" si="148"/>
-        <v>-4.0569597143900381E-4</v>
-      </c>
-      <c r="AW43" s="1">
-        <f t="shared" si="148"/>
-        <v>-8.1139194287800762E-4</v>
-      </c>
-      <c r="AX43" s="1">
-        <f t="shared" si="148"/>
-        <v>-8.1139194287800762E-4</v>
-      </c>
-      <c r="AY43" s="1">
-        <f t="shared" si="148"/>
-        <v>-8.1139194287800762E-4</v>
-      </c>
-      <c r="AZ43" s="1">
-        <f t="shared" si="148"/>
-        <v>4.0569597143900381E-4</v>
-      </c>
-      <c r="BA43" s="1">
-        <f t="shared" si="148"/>
-        <v>2.0284798571950191E-3</v>
-      </c>
-      <c r="BB43" s="1">
-        <f t="shared" si="148"/>
-        <v>2.1096190514828107E-3</v>
-      </c>
-      <c r="BF43">
-        <f t="shared" ref="BF43:BM43" si="149">(Y14+($O$1*$BD14*AJ14))</f>
-        <v>-0.4444444444444442</v>
-      </c>
-      <c r="BG43">
-        <f t="shared" si="149"/>
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <f t="shared" si="149"/>
-        <v>5.0000000000000037E-2</v>
-      </c>
-      <c r="BI43">
-        <f t="shared" si="149"/>
-        <v>2.8822784810126641E-4</v>
-      </c>
-      <c r="BJ43">
-        <f t="shared" si="149"/>
-        <v>-7.4711772151898781E-2</v>
-      </c>
-      <c r="BK43">
-        <f t="shared" si="149"/>
-        <v>-2.7423544303797492E-2</v>
-      </c>
-      <c r="BL43">
-        <f t="shared" si="149"/>
-        <v>-5.0000000000000044E-3</v>
-      </c>
-      <c r="BM43">
-        <f t="shared" si="149"/>
-        <v>5.7645569620246873E-5</v>
-      </c>
-    </row>
-    <row r="44" spans="13:65" x14ac:dyDescent="0.25">
-      <c r="M44" s="34">
-        <f t="shared" si="137"/>
-        <v>9.899494936611665E-2</v>
-      </c>
-      <c r="N44" s="34">
-        <f t="shared" si="138"/>
-        <v>0.12781627439414747</v>
-      </c>
-      <c r="O44" s="34">
-        <f t="shared" si="139"/>
-        <v>0.155</v>
-      </c>
-      <c r="P44" s="34">
-        <f t="shared" si="140"/>
-        <v>0.18037926710129409</v>
-      </c>
-      <c r="Q44" s="34">
-        <f t="shared" si="141"/>
-        <v>0.20414333199984758</v>
-      </c>
-      <c r="R44" s="34">
-        <f t="shared" si="142"/>
-        <v>0.21991020894901631</v>
-      </c>
-      <c r="S44" s="34">
-        <f t="shared" si="143"/>
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="T44" s="34">
-        <f t="shared" si="144"/>
-        <v>0.40870771952582446</v>
-      </c>
-      <c r="U44" s="34">
-        <f t="shared" si="145"/>
-        <v>0.50125550371043304</v>
-      </c>
-      <c r="Y44" s="1">
-        <f t="shared" ref="Y44:AF44" si="150">Y30/Y$19</f>
-        <v>-0.4444444444444442</v>
-      </c>
-      <c r="Z44" s="1">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="1">
         <f t="shared" si="150"/>
         <v>5.0000000000000037E-2</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AB42" s="1">
         <f t="shared" si="150"/>
-        <v>1.1111111111111125E-2</v>
-      </c>
-      <c r="AC44" s="1">
+        <v>-1.1111111111111125E-2</v>
+      </c>
+      <c r="AC42" s="1">
         <f t="shared" si="150"/>
-        <v>-5.0000000000000037E-2</v>
-      </c>
-      <c r="AD44" s="1">
+        <v>-7.5000000000000053E-2</v>
+      </c>
+      <c r="AD42" s="1">
         <f t="shared" si="150"/>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="AE44" s="1">
+      <c r="AE42" s="1">
         <f t="shared" si="150"/>
-        <v>-7.0000000000000062E-3</v>
-      </c>
-      <c r="AF44" s="1">
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="AF42" s="1">
         <f t="shared" si="150"/>
-        <v>4.0000000000001146E-4</v>
-      </c>
-      <c r="AI44" s="1">
-        <f t="shared" ref="AI44:AQ44" si="151">AI30/$AH30</f>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="1">
+        <v>-1.9999999999997797E-4</v>
+      </c>
+      <c r="AI42" s="1">
+        <f t="shared" ref="AI42:AQ42" si="151">AI28/$AH28</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="1">
         <f t="shared" si="151"/>
         <v>0</v>
       </c>
-      <c r="AK44" s="1">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="AL44" s="1">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="AM44" s="1">
+      <c r="AK42" s="1">
         <f t="shared" si="151"/>
         <v>1.2820512820512814E-3</v>
       </c>
-      <c r="AN44" s="1">
+      <c r="AL42" s="1">
+        <f t="shared" si="151"/>
+        <v>2.5641025641025628E-3</v>
+      </c>
+      <c r="AM42" s="1">
         <f t="shared" si="151"/>
         <v>3.8461538461538438E-3</v>
       </c>
-      <c r="AO44" s="1">
+      <c r="AN42" s="1">
         <f t="shared" si="151"/>
-        <v>2.5641025641025628E-3</v>
-      </c>
-      <c r="AP44" s="1">
+        <v>3.8461538461538438E-3</v>
+      </c>
+      <c r="AO42" s="1">
         <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="1">
+        <v>1.2820512820512814E-3</v>
+      </c>
+      <c r="AP42" s="1">
         <f t="shared" si="151"/>
-        <v>5.1282051282052681E-4</v>
-      </c>
-      <c r="AT44" s="1">
-        <f t="shared" ref="AT44:BB44" si="152">AT30/$AS30</f>
-        <v>0</v>
-      </c>
-      <c r="AU44" s="1">
+        <v>-6.4102564102564066E-3</v>
+      </c>
+      <c r="AQ42" s="1">
+        <f t="shared" si="151"/>
+        <v>-6.4102564102564066E-3</v>
+      </c>
+      <c r="AT42" s="1">
+        <f t="shared" ref="AT42:BB42" si="152">AT28/$AS28</f>
+        <v>0</v>
+      </c>
+      <c r="AU42" s="1">
         <f t="shared" si="152"/>
         <v>0</v>
       </c>
-      <c r="AV44" s="1">
+      <c r="AV42" s="1">
         <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="AW44" s="1">
+        <v>-4.0569597143900381E-4</v>
+      </c>
+      <c r="AW42" s="1">
         <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="AX44" s="1">
+        <v>-1.6227838857560152E-3</v>
+      </c>
+      <c r="AX42" s="1">
         <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="AY44" s="1">
+        <v>-1.2170879143170114E-3</v>
+      </c>
+      <c r="AY42" s="1">
         <f t="shared" si="152"/>
-        <v>8.1139194287800762E-4</v>
-      </c>
-      <c r="AZ44" s="1">
+        <v>-4.0569597143900381E-4</v>
+      </c>
+      <c r="AZ42" s="1">
         <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="BA44" s="1">
+        <v>4.0569597143900381E-4</v>
+      </c>
+      <c r="BA42" s="1">
         <f t="shared" si="152"/>
         <v>0</v>
       </c>
-      <c r="BB44" s="1">
+      <c r="BB42" s="1">
         <f t="shared" si="152"/>
-        <v>8.1139194287814268E-5</v>
-      </c>
-      <c r="BF44">
-        <f t="shared" ref="BF44:BM44" si="153">(Y15+($O$1*$BD15*AJ15))</f>
+        <v>4.0569597143895879E-5</v>
+      </c>
+      <c r="BF42">
+        <f t="shared" ref="BF42:BM42" si="153">(Y13+($O$1*$BD13*AJ13))</f>
         <v>-0.4444444444444442</v>
       </c>
-      <c r="BG44">
+      <c r="BG42">
         <f t="shared" si="153"/>
-        <v>0</v>
-      </c>
-      <c r="BH44">
+        <v>2.8179487179487162E-4</v>
+      </c>
+      <c r="BH42">
         <f t="shared" si="153"/>
+        <v>5.0563589743589779E-2</v>
+      </c>
+      <c r="BI42">
+        <f t="shared" si="153"/>
+        <v>-1.0265726495726511E-2</v>
+      </c>
+      <c r="BJ42">
+        <f t="shared" si="153"/>
+        <v>-7.4154615384615444E-2</v>
+      </c>
+      <c r="BK42">
+        <f t="shared" si="153"/>
+        <v>-2.9718205128205156E-2</v>
+      </c>
+      <c r="BL42">
+        <f t="shared" si="153"/>
+        <v>-4.4089743589743611E-3</v>
+      </c>
+      <c r="BM42">
+        <f t="shared" si="153"/>
+        <v>-1.6089743589743361E-3</v>
+      </c>
+      <c r="BQ42" s="36">
+        <f t="shared" ref="BQ42:BX42" si="154">(AU13-N13*(AJ13^2)*SQRT(BQ$4))</f>
+        <v>0</v>
+      </c>
+      <c r="BR42" s="36">
+        <f t="shared" si="154"/>
+        <v>-4.0398890405643923E-4</v>
+      </c>
+      <c r="BS42" s="36">
+        <f t="shared" si="154"/>
+        <v>-1.616148461177373E-3</v>
+      </c>
+      <c r="BT42" s="36">
+        <f t="shared" si="154"/>
+        <v>-1.2023565143027756E-3</v>
+      </c>
+      <c r="BU42" s="36">
+        <f t="shared" si="154"/>
+        <v>-3.9085922401589738E-4</v>
+      </c>
+      <c r="BV42" s="36">
+        <f t="shared" si="154"/>
+        <v>4.0729369597034367E-4</v>
+      </c>
+      <c r="BW42" s="36">
+        <f t="shared" si="154"/>
+        <v>3.31221089040078E-5</v>
+      </c>
+      <c r="BX42" s="36">
+        <f t="shared" si="154"/>
+        <v>6.6374657756141164E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="13:76" x14ac:dyDescent="0.25">
+      <c r="M43" s="34">
+        <f t="shared" ref="M43:M45" si="155">B14*SQRT(M$4)</f>
+        <v>9.899494936611665E-2</v>
+      </c>
+      <c r="N43" s="34">
+        <f t="shared" ref="N43:N45" si="156">C14*SQRT(N$4)</f>
+        <v>0.12781627439414747</v>
+      </c>
+      <c r="O43" s="34">
+        <f t="shared" ref="O43:O45" si="157">D14*SQRT(O$4)</f>
+        <v>0.155</v>
+      </c>
+      <c r="P43" s="34">
+        <f t="shared" ref="P43:P45" si="158">E14*SQRT(P$4)</f>
+        <v>0.18037926710129409</v>
+      </c>
+      <c r="Q43" s="34">
+        <f t="shared" ref="Q43:Q45" si="159">F14*SQRT(Q$4)</f>
+        <v>0.20349525793000681</v>
+      </c>
+      <c r="R43" s="34">
+        <f t="shared" ref="R43:R45" si="160">G14*SQRT(R$4)</f>
+        <v>0.21778888860545664</v>
+      </c>
+      <c r="S43" s="34">
+        <f t="shared" ref="S43:S45" si="161">H14*SQRT(S$4)</f>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="T43" s="34">
+        <f t="shared" ref="T43:T45" si="162">I14*SQRT(T$4)</f>
+        <v>0.40870771952582446</v>
+      </c>
+      <c r="U43" s="34">
+        <f t="shared" ref="U43:U45" si="163">J14*SQRT(U$4)</f>
+        <v>0.5005626833874055</v>
+      </c>
+      <c r="Y43" s="1">
+        <f t="shared" ref="Y43:AF43" si="164">Y29/Y$19</f>
+        <v>-0.4444444444444442</v>
+      </c>
+      <c r="Z43" s="1">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <f t="shared" si="164"/>
         <v>5.0000000000000037E-2</v>
       </c>
-      <c r="BI44">
-        <f t="shared" si="153"/>
-        <v>1.1413034188034202E-2</v>
-      </c>
-      <c r="BJ44">
-        <f t="shared" si="153"/>
-        <v>-4.9094230769230807E-2</v>
-      </c>
-      <c r="BK44">
-        <f t="shared" si="153"/>
-        <v>-2.9396153846153874E-2</v>
-      </c>
-      <c r="BL44">
-        <f t="shared" si="153"/>
-        <v>-7.0000000000000062E-3</v>
-      </c>
-      <c r="BM44">
-        <f t="shared" si="153"/>
-        <v>5.2076923076924554E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="13:65" x14ac:dyDescent="0.25">
-      <c r="M45" s="34">
-        <f t="shared" si="137"/>
-        <v>9.9560634791065888E-2</v>
-      </c>
-      <c r="N45" s="34">
-        <f t="shared" si="138"/>
-        <v>0.12781627439414747</v>
-      </c>
-      <c r="O45" s="34">
-        <f t="shared" si="139"/>
-        <v>0.155</v>
-      </c>
-      <c r="P45" s="34">
-        <f t="shared" si="140"/>
-        <v>0.18037926710129409</v>
-      </c>
-      <c r="Q45" s="34">
-        <f t="shared" si="141"/>
-        <v>0.20155103572048444</v>
-      </c>
-      <c r="R45" s="34">
-        <f t="shared" si="142"/>
-        <v>0.22061731573020285</v>
-      </c>
-      <c r="S45" s="34">
-        <f t="shared" si="143"/>
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="T45" s="34">
-        <f t="shared" si="144"/>
-        <v>0.41012193308819755</v>
-      </c>
-      <c r="U45" s="34">
-        <f t="shared" si="145"/>
-        <v>0.50194832403346057</v>
-      </c>
-      <c r="Y45" s="1">
-        <f t="shared" ref="Y45:AF45" si="154">Y31/Y$19</f>
-        <v>-0.4666666666666664</v>
-      </c>
-      <c r="Z45" s="1">
-        <f t="shared" si="154"/>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="1">
-        <f t="shared" si="154"/>
-        <v>5.0000000000000037E-2</v>
-      </c>
-      <c r="AB45" s="1">
-        <f t="shared" si="154"/>
-        <v>-3.3333333333333375E-2</v>
-      </c>
-      <c r="AC45" s="1">
-        <f t="shared" si="154"/>
-        <v>1.2500000000000009E-2</v>
-      </c>
-      <c r="AD45" s="1">
-        <f t="shared" si="154"/>
+      <c r="AB43" s="1">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <f t="shared" si="164"/>
+        <v>-7.5000000000000053E-2</v>
+      </c>
+      <c r="AD43" s="1">
+        <f t="shared" si="164"/>
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="AE45" s="1">
-        <f t="shared" si="154"/>
-        <v>-8.0000000000000071E-3</v>
-      </c>
-      <c r="AF45" s="1">
-        <f t="shared" si="154"/>
-        <v>-1.9999999999997797E-4</v>
-      </c>
-      <c r="AI45" s="1">
-        <f t="shared" ref="AI45:AQ45" si="155">AI31/$AH31</f>
+      <c r="AE43" s="1">
+        <f t="shared" si="164"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="AF43" s="1">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="1">
+        <f t="shared" ref="AI43:AQ43" si="165">AI29/$AH29</f>
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="1">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="1">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="1">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="AM43" s="1">
+        <f t="shared" si="165"/>
+        <v>1.265822784810129E-3</v>
+      </c>
+      <c r="AN43" s="1">
+        <f t="shared" si="165"/>
+        <v>1.265822784810129E-3</v>
+      </c>
+      <c r="AO43" s="1">
+        <f t="shared" si="165"/>
         <v>2.531645569620258E-3</v>
       </c>
-      <c r="AJ45" s="1">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="AK45" s="1">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="AL45" s="1">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="AM45" s="1">
-        <f t="shared" si="155"/>
-        <v>-5.063291139240516E-3</v>
-      </c>
-      <c r="AN45" s="1">
-        <f t="shared" si="155"/>
-        <v>1.265822784810129E-3</v>
-      </c>
-      <c r="AO45" s="1">
-        <f t="shared" si="155"/>
-        <v>2.531645569620258E-3</v>
-      </c>
-      <c r="AP45" s="1">
-        <f t="shared" si="155"/>
-        <v>1.265822784810129E-3</v>
-      </c>
-      <c r="AQ45" s="1">
-        <f t="shared" si="155"/>
-        <v>5.0632911392406573E-4</v>
-      </c>
-      <c r="AT45" s="1">
-        <f t="shared" ref="AT45:BB45" si="156">AT31/$AS31</f>
-        <v>8.1139194287800762E-4</v>
-      </c>
-      <c r="AU45" s="1">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="AV45" s="1">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="AW45" s="1">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="AX45" s="1">
-        <f t="shared" si="156"/>
-        <v>-2.0284798571950191E-3</v>
-      </c>
-      <c r="AY45" s="1">
-        <f t="shared" si="156"/>
+      <c r="AP43" s="1">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="1">
+        <f t="shared" si="165"/>
+        <v>2.5316455696199768E-4</v>
+      </c>
+      <c r="AT43" s="1">
+        <f t="shared" ref="AT43:BB43" si="166">AT29/$AS29</f>
+        <v>0</v>
+      </c>
+      <c r="AU43" s="1">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="AV43" s="1">
+        <f t="shared" si="166"/>
+        <v>-4.0569597143900381E-4</v>
+      </c>
+      <c r="AW43" s="1">
+        <f t="shared" si="166"/>
         <v>-8.1139194287800762E-4</v>
       </c>
-      <c r="AZ45" s="1">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="BA45" s="1">
-        <f t="shared" si="156"/>
+      <c r="AX43" s="1">
+        <f t="shared" si="166"/>
+        <v>-8.1139194287800762E-4</v>
+      </c>
+      <c r="AY43" s="1">
+        <f t="shared" si="166"/>
+        <v>-8.1139194287800762E-4</v>
+      </c>
+      <c r="AZ43" s="1">
+        <f t="shared" si="166"/>
         <v>4.0569597143900381E-4</v>
       </c>
-      <c r="BB45" s="1">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="BF45">
-        <f t="shared" ref="BF45:BM45" si="157">(Y16+($O$1*$BD16*AJ16))</f>
-        <v>-0.4666666666666664</v>
-      </c>
-      <c r="BG45">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <f t="shared" si="157"/>
-        <v>5.0000000000000037E-2</v>
-      </c>
-      <c r="BI45">
-        <f t="shared" si="157"/>
-        <v>-3.4565738396624517E-2</v>
-      </c>
-      <c r="BJ45">
-        <f t="shared" si="157"/>
-        <v>1.2808101265822795E-2</v>
-      </c>
-      <c r="BK45">
-        <f t="shared" si="157"/>
-        <v>-2.7383797468354454E-2</v>
-      </c>
-      <c r="BL45">
-        <f t="shared" si="157"/>
-        <v>-7.6918987341772216E-3</v>
-      </c>
-      <c r="BM45">
-        <f t="shared" si="157"/>
-        <v>-7.6759493670860377E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="13:65" x14ac:dyDescent="0.25">
-      <c r="M46" s="34">
-        <f t="shared" ref="M46" si="158">B17*SQRT(M$4)</f>
-        <v>9.9560634791065888E-2</v>
-      </c>
-      <c r="N46" s="34">
-        <f t="shared" ref="N46" si="159">C17*SQRT(N$4)</f>
-        <v>0.12781627439414747</v>
-      </c>
-      <c r="O46" s="34">
-        <f t="shared" ref="O46" si="160">D17*SQRT(O$4)</f>
-        <v>0.155</v>
-      </c>
-      <c r="P46" s="34">
-        <f t="shared" ref="P46" si="161">E17*SQRT(P$4)</f>
-        <v>0.18037926710129409</v>
-      </c>
-      <c r="Q46" s="34">
-        <f t="shared" ref="Q46" si="162">F17*SQRT(Q$4)</f>
-        <v>0.20414333199984758</v>
-      </c>
-      <c r="R46" s="34">
-        <f t="shared" ref="R46" si="163">G17*SQRT(R$4)</f>
-        <v>0.22061731573020285</v>
-      </c>
-      <c r="S46" s="34">
-        <f t="shared" ref="S46" si="164">H17*SQRT(S$4)</f>
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="T46" s="34">
-        <f t="shared" ref="T46" si="165">I17*SQRT(T$4)</f>
-        <v>0.41012193308819755</v>
-      </c>
-      <c r="U46" s="34">
-        <f t="shared" ref="U46" si="166">J17*SQRT(U$4)</f>
-        <v>0.5024679392757313</v>
-      </c>
-      <c r="Y46" s="1">
-        <f t="shared" ref="Y46:AF46" si="167">Y32/Y$19</f>
-        <v>-0.4666666666666664</v>
-      </c>
-      <c r="Z46" s="1">
+      <c r="BA43" s="1">
+        <f t="shared" si="166"/>
+        <v>2.0284798571950191E-3</v>
+      </c>
+      <c r="BB43" s="1">
+        <f t="shared" si="166"/>
+        <v>2.1096190514828107E-3</v>
+      </c>
+      <c r="BF43">
+        <f t="shared" ref="BF43:BM43" si="167">(Y14+($O$1*$BD14*AJ14))</f>
+        <v>-0.4444444444444442</v>
+      </c>
+      <c r="BG43">
         <f t="shared" si="167"/>
         <v>0</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="BH43">
         <f t="shared" si="167"/>
         <v>5.0000000000000037E-2</v>
       </c>
+      <c r="BI43">
+        <f t="shared" si="167"/>
+        <v>2.8822784810126641E-4</v>
+      </c>
+      <c r="BJ43">
+        <f t="shared" si="167"/>
+        <v>-7.4711772151898781E-2</v>
+      </c>
+      <c r="BK43">
+        <f t="shared" si="167"/>
+        <v>-2.7423544303797492E-2</v>
+      </c>
+      <c r="BL43">
+        <f t="shared" si="167"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="BM43">
+        <f t="shared" si="167"/>
+        <v>5.7645569620246873E-5</v>
+      </c>
+      <c r="BQ43" s="36">
+        <f t="shared" ref="BQ43:BX43" si="168">(AU14-N14*(AJ14^2)*SQRT(BQ$4))</f>
+        <v>0</v>
+      </c>
+      <c r="BR43" s="36">
+        <f t="shared" si="168"/>
+        <v>-4.0569597143900381E-4</v>
+      </c>
+      <c r="BS43" s="36">
+        <f t="shared" si="168"/>
+        <v>-8.1139194287800762E-4</v>
+      </c>
+      <c r="BT43" s="36">
+        <f t="shared" si="168"/>
+        <v>-8.0962186271303432E-4</v>
+      </c>
+      <c r="BU43" s="36">
+        <f t="shared" si="168"/>
+        <v>-8.0960720575149923E-4</v>
+      </c>
+      <c r="BV43" s="36">
+        <f t="shared" si="168"/>
+        <v>4.1264072383284851E-4</v>
+      </c>
+      <c r="BW43" s="36">
+        <f t="shared" si="168"/>
+        <v>2.0284798571950191E-3</v>
+      </c>
+      <c r="BX43" s="36">
+        <f t="shared" si="168"/>
+        <v>2.1096670656291822E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="13:76" x14ac:dyDescent="0.25">
+      <c r="M44" s="34">
+        <f t="shared" si="155"/>
+        <v>9.899494936611665E-2</v>
+      </c>
+      <c r="N44" s="34">
+        <f t="shared" si="156"/>
+        <v>0.12781627439414747</v>
+      </c>
+      <c r="O44" s="34">
+        <f t="shared" si="157"/>
+        <v>0.155</v>
+      </c>
+      <c r="P44" s="34">
+        <f t="shared" si="158"/>
+        <v>0.18037926710129409</v>
+      </c>
+      <c r="Q44" s="34">
+        <f t="shared" si="159"/>
+        <v>0.20414333199984758</v>
+      </c>
+      <c r="R44" s="34">
+        <f t="shared" si="160"/>
+        <v>0.21991020894901631</v>
+      </c>
+      <c r="S44" s="34">
+        <f t="shared" si="161"/>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="T44" s="34">
+        <f t="shared" si="162"/>
+        <v>0.40870771952582446</v>
+      </c>
+      <c r="U44" s="34">
+        <f t="shared" si="163"/>
+        <v>0.50125550371043304</v>
+      </c>
+      <c r="Y44" s="1">
+        <f t="shared" ref="Y44:AF44" si="169">Y30/Y$19</f>
+        <v>-0.4444444444444442</v>
+      </c>
+      <c r="Z44" s="1">
+        <f t="shared" si="169"/>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
+        <f t="shared" si="169"/>
+        <v>5.0000000000000037E-2</v>
+      </c>
+      <c r="AB44" s="1">
+        <f t="shared" si="169"/>
+        <v>1.1111111111111125E-2</v>
+      </c>
+      <c r="AC44" s="1">
+        <f t="shared" si="169"/>
+        <v>-5.0000000000000037E-2</v>
+      </c>
+      <c r="AD44" s="1">
+        <f t="shared" si="169"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="AE44" s="1">
+        <f t="shared" si="169"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="AF44" s="1">
+        <f t="shared" si="169"/>
+        <v>4.0000000000001146E-4</v>
+      </c>
+      <c r="AI44" s="1">
+        <f t="shared" ref="AI44:AQ44" si="170">AI30/$AH30</f>
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="1">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="1">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="1">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="AM44" s="1">
+        <f t="shared" si="170"/>
+        <v>1.2820512820512814E-3</v>
+      </c>
+      <c r="AN44" s="1">
+        <f t="shared" si="170"/>
+        <v>3.8461538461538438E-3</v>
+      </c>
+      <c r="AO44" s="1">
+        <f t="shared" si="170"/>
+        <v>2.5641025641025628E-3</v>
+      </c>
+      <c r="AP44" s="1">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="1">
+        <f t="shared" si="170"/>
+        <v>5.1282051282052681E-4</v>
+      </c>
+      <c r="AT44" s="1">
+        <f t="shared" ref="AT44:BB44" si="171">AT30/$AS30</f>
+        <v>0</v>
+      </c>
+      <c r="AU44" s="1">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="AV44" s="1">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="AW44" s="1">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="AX44" s="1">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="AY44" s="1">
+        <f t="shared" si="171"/>
+        <v>8.1139194287800762E-4</v>
+      </c>
+      <c r="AZ44" s="1">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="BA44" s="1">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="BB44" s="1">
+        <f t="shared" si="171"/>
+        <v>8.1139194287814268E-5</v>
+      </c>
+      <c r="BF44">
+        <f t="shared" ref="BF44:BM44" si="172">(Y15+($O$1*$BD15*AJ15))</f>
+        <v>-0.4444444444444442</v>
+      </c>
+      <c r="BG44">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <f t="shared" si="172"/>
+        <v>5.0000000000000037E-2</v>
+      </c>
+      <c r="BI44">
+        <f t="shared" si="172"/>
+        <v>1.1413034188034202E-2</v>
+      </c>
+      <c r="BJ44">
+        <f t="shared" si="172"/>
+        <v>-4.9094230769230807E-2</v>
+      </c>
+      <c r="BK44">
+        <f t="shared" si="172"/>
+        <v>-2.9396153846153874E-2</v>
+      </c>
+      <c r="BL44">
+        <f t="shared" si="172"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="BM44">
+        <f t="shared" si="172"/>
+        <v>5.2076923076924554E-4</v>
+      </c>
+      <c r="BQ44" s="36">
+        <f t="shared" ref="BQ44:BX44" si="173">(AU15-N15*(AJ15^2)*SQRT(BQ$4))</f>
+        <v>0</v>
+      </c>
+      <c r="BR44" s="36">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="BS44" s="36">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="BT44" s="36">
+        <f t="shared" si="173"/>
+        <v>1.985055039542511E-6</v>
+      </c>
+      <c r="BU44" s="36">
+        <f t="shared" si="173"/>
+        <v>8.2929015527303813E-4</v>
+      </c>
+      <c r="BV44" s="36">
+        <f t="shared" si="173"/>
+        <v>7.8108531928710689E-6</v>
+      </c>
+      <c r="BW44" s="36">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="BX44" s="36">
+        <f t="shared" si="173"/>
+        <v>8.1366226905216411E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="13:76" x14ac:dyDescent="0.25">
+      <c r="M45" s="34">
+        <f t="shared" si="155"/>
+        <v>9.9560634791065888E-2</v>
+      </c>
+      <c r="N45" s="34">
+        <f t="shared" si="156"/>
+        <v>0.12781627439414747</v>
+      </c>
+      <c r="O45" s="34">
+        <f t="shared" si="157"/>
+        <v>0.155</v>
+      </c>
+      <c r="P45" s="34">
+        <f t="shared" si="158"/>
+        <v>0.18037926710129409</v>
+      </c>
+      <c r="Q45" s="34">
+        <f t="shared" si="159"/>
+        <v>0.20155103572048444</v>
+      </c>
+      <c r="R45" s="34">
+        <f t="shared" si="160"/>
+        <v>0.22061731573020285</v>
+      </c>
+      <c r="S45" s="34">
+        <f t="shared" si="161"/>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="T45" s="34">
+        <f t="shared" si="162"/>
+        <v>0.41012193308819755</v>
+      </c>
+      <c r="U45" s="34">
+        <f t="shared" si="163"/>
+        <v>0.50194832403346057</v>
+      </c>
+      <c r="Y45" s="1">
+        <f t="shared" ref="Y45:AF45" si="174">Y31/Y$19</f>
+        <v>-0.4666666666666664</v>
+      </c>
+      <c r="Z45" s="1">
+        <f t="shared" si="174"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <f t="shared" si="174"/>
+        <v>5.0000000000000037E-2</v>
+      </c>
+      <c r="AB45" s="1">
+        <f t="shared" si="174"/>
+        <v>-3.3333333333333375E-2</v>
+      </c>
+      <c r="AC45" s="1">
+        <f t="shared" si="174"/>
+        <v>1.2500000000000009E-2</v>
+      </c>
+      <c r="AD45" s="1">
+        <f t="shared" si="174"/>
+        <v>-2.8000000000000025E-2</v>
+      </c>
+      <c r="AE45" s="1">
+        <f t="shared" si="174"/>
+        <v>-8.0000000000000071E-3</v>
+      </c>
+      <c r="AF45" s="1">
+        <f t="shared" si="174"/>
+        <v>-1.9999999999997797E-4</v>
+      </c>
+      <c r="AI45" s="1">
+        <f t="shared" ref="AI45:AQ45" si="175">AI31/$AH31</f>
+        <v>2.531645569620258E-3</v>
+      </c>
+      <c r="AJ45" s="1">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+      <c r="AK45" s="1">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+      <c r="AL45" s="1">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+      <c r="AM45" s="1">
+        <f t="shared" si="175"/>
+        <v>-5.063291139240516E-3</v>
+      </c>
+      <c r="AN45" s="1">
+        <f t="shared" si="175"/>
+        <v>1.265822784810129E-3</v>
+      </c>
+      <c r="AO45" s="1">
+        <f t="shared" si="175"/>
+        <v>2.531645569620258E-3</v>
+      </c>
+      <c r="AP45" s="1">
+        <f t="shared" si="175"/>
+        <v>1.265822784810129E-3</v>
+      </c>
+      <c r="AQ45" s="1">
+        <f t="shared" si="175"/>
+        <v>5.0632911392406573E-4</v>
+      </c>
+      <c r="AT45" s="1">
+        <f t="shared" ref="AT45:BB45" si="176">AT31/$AS31</f>
+        <v>8.1139194287800762E-4</v>
+      </c>
+      <c r="AU45" s="1">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="AV45" s="1">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="AW45" s="1">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="AX45" s="1">
+        <f t="shared" si="176"/>
+        <v>-2.0284798571950191E-3</v>
+      </c>
+      <c r="AY45" s="1">
+        <f t="shared" si="176"/>
+        <v>-8.1139194287800762E-4</v>
+      </c>
+      <c r="AZ45" s="1">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="BA45" s="1">
+        <f t="shared" si="176"/>
+        <v>4.0569597143900381E-4</v>
+      </c>
+      <c r="BB45" s="1">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <f t="shared" ref="BF45:BM45" si="177">(Y16+($O$1*$BD16*AJ16))</f>
+        <v>-0.4666666666666664</v>
+      </c>
+      <c r="BG45">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <f t="shared" si="177"/>
+        <v>5.0000000000000037E-2</v>
+      </c>
+      <c r="BI45">
+        <f t="shared" si="177"/>
+        <v>-3.4565738396624517E-2</v>
+      </c>
+      <c r="BJ45">
+        <f t="shared" si="177"/>
+        <v>1.2808101265822795E-2</v>
+      </c>
+      <c r="BK45">
+        <f t="shared" si="177"/>
+        <v>-2.7383797468354454E-2</v>
+      </c>
+      <c r="BL45">
+        <f t="shared" si="177"/>
+        <v>-7.6918987341772216E-3</v>
+      </c>
+      <c r="BM45">
+        <f t="shared" si="177"/>
+        <v>-7.6759493670860377E-5</v>
+      </c>
+      <c r="BQ45" s="36">
+        <f t="shared" ref="BQ45:BX45" si="178">(AU16-N16*(AJ16^2)*SQRT(BQ$4))</f>
+        <v>0</v>
+      </c>
+      <c r="BR45" s="36">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="BS45" s="36">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="BT45" s="36">
+        <f t="shared" si="178"/>
+        <v>-1.9943564638518489E-3</v>
+      </c>
+      <c r="BU45" s="36">
+        <f t="shared" si="178"/>
+        <v>-8.0929084357601216E-4</v>
+      </c>
+      <c r="BV45" s="36">
+        <f t="shared" si="178"/>
+        <v>8.2601281459824632E-6</v>
+      </c>
+      <c r="BW45" s="36">
+        <f t="shared" si="178"/>
+        <v>4.075433786030034E-4</v>
+      </c>
+      <c r="BX45" s="36">
+        <f t="shared" si="178"/>
+        <v>2.49897411598149E-7</v>
+      </c>
+    </row>
+    <row r="46" spans="13:76" x14ac:dyDescent="0.25">
+      <c r="M46" s="34">
+        <f t="shared" ref="M46" si="179">B17*SQRT(M$4)</f>
+        <v>9.9560634791065888E-2</v>
+      </c>
+      <c r="N46" s="34">
+        <f t="shared" ref="N46" si="180">C17*SQRT(N$4)</f>
+        <v>0.12781627439414747</v>
+      </c>
+      <c r="O46" s="34">
+        <f t="shared" ref="O46" si="181">D17*SQRT(O$4)</f>
+        <v>0.155</v>
+      </c>
+      <c r="P46" s="34">
+        <f t="shared" ref="P46" si="182">E17*SQRT(P$4)</f>
+        <v>0.18037926710129409</v>
+      </c>
+      <c r="Q46" s="34">
+        <f t="shared" ref="Q46" si="183">F17*SQRT(Q$4)</f>
+        <v>0.20414333199984758</v>
+      </c>
+      <c r="R46" s="34">
+        <f t="shared" ref="R46" si="184">G17*SQRT(R$4)</f>
+        <v>0.22061731573020285</v>
+      </c>
+      <c r="S46" s="34">
+        <f t="shared" ref="S46" si="185">H17*SQRT(S$4)</f>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="T46" s="34">
+        <f t="shared" ref="T46" si="186">I17*SQRT(T$4)</f>
+        <v>0.41012193308819755</v>
+      </c>
+      <c r="U46" s="34">
+        <f t="shared" ref="U46" si="187">J17*SQRT(U$4)</f>
+        <v>0.5024679392757313</v>
+      </c>
+      <c r="Y46" s="1">
+        <f t="shared" ref="Y46:AF46" si="188">Y32/Y$19</f>
+        <v>-0.4666666666666664</v>
+      </c>
+      <c r="Z46" s="1">
+        <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
+        <f t="shared" si="188"/>
+        <v>5.0000000000000037E-2</v>
+      </c>
       <c r="AB46" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>1.1111111111111125E-2</v>
       </c>
       <c r="AC46" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>-3.7500000000000026E-2</v>
       </c>
       <c r="AD46" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>-2.6000000000000023E-2</v>
       </c>
       <c r="AE46" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="AF46" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>1.000000000000445E-4</v>
       </c>
       <c r="AI46" s="1">
-        <f t="shared" ref="AI46:AQ46" si="168">AI32/$AH32</f>
+        <f t="shared" ref="AI46:AQ46" si="189">AI32/$AH32</f>
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="AL46" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="AM46" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>5.1282051282051256E-3</v>
       </c>
       <c r="AN46" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="AO46" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>1.2820512820512814E-3</v>
       </c>
       <c r="AP46" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>3.8461538461541286E-4</v>
       </c>
       <c r="AT46" s="1">
-        <f t="shared" ref="AT46:BB46" si="169">AT32/$AS32</f>
+        <f t="shared" ref="AT46:BB46" si="190">AT32/$AS32</f>
         <v>-8.1139194287800762E-4</v>
       </c>
       <c r="AU46" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="AV46" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="AW46" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="190"/>
         <v>3.2455677715120305E-3</v>
       </c>
       <c r="AY46" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="190"/>
         <v>-4.0569597143900381E-4</v>
       </c>
       <c r="AZ46" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="190"/>
         <v>-4.0569597143900381E-4</v>
       </c>
       <c r="BA46" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="190"/>
         <v>-4.0569597143900381E-4</v>
       </c>
       <c r="BB46" s="35">
-        <f t="shared" si="169"/>
+        <f t="shared" si="190"/>
         <v>-4.0569597143895879E-5</v>
       </c>
       <c r="BF46">
-        <f t="shared" ref="BF46:BM46" si="170">(Y17+($O$1*$BD17*AJ17))</f>
+        <f t="shared" ref="BF46:BM46" si="191">(Y17+($O$1*$BD17*AJ17))</f>
         <v>-0.4666666666666664</v>
       </c>
       <c r="BG46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="BH46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="191"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="BI46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="191"/>
         <v>1.2399316239316253E-2</v>
       </c>
       <c r="BJ46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="191"/>
         <v>-3.7500000000000026E-2</v>
       </c>
       <c r="BK46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="191"/>
         <v>-2.5677948717948741E-2</v>
       </c>
       <c r="BL46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="191"/>
         <v>-9.000000000000008E-3</v>
       </c>
-      <c r="BM46" s="36">
-        <f t="shared" si="170"/>
+      <c r="BM46" s="37">
+        <f t="shared" si="191"/>
         <v>1.9661538461543621E-4</v>
       </c>
+      <c r="BQ46" s="36">
+        <f t="shared" ref="BQ46:BX46" si="192">(AU17-N17*(AJ17^2)*SQRT(BQ$4))</f>
+        <v>0</v>
+      </c>
+      <c r="BR46" s="36">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="BS46" s="36">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="BT46" s="36">
+        <f t="shared" si="192"/>
+        <v>3.2827167966309047E-3</v>
+      </c>
+      <c r="BU46" s="36">
+        <f t="shared" si="192"/>
+        <v>-4.0569597143900381E-4</v>
+      </c>
+      <c r="BV46" s="36">
+        <f t="shared" si="192"/>
+        <v>-4.0341297723057654E-4</v>
+      </c>
+      <c r="BW46" s="36">
+        <f t="shared" si="192"/>
+        <v>-4.0569597143900381E-4</v>
+      </c>
+      <c r="BX46" s="36">
+        <f t="shared" si="192"/>
+        <v>-4.0409599971809849E-5</v>
+      </c>
     </row>
-    <row r="48" spans="13:65" x14ac:dyDescent="0.25">
+    <row r="48" spans="13:76" x14ac:dyDescent="0.25">
       <c r="M48" s="34">
         <f>($L20+M20)/M34</f>
         <v>5.4321611878432888E-2</v>
       </c>
       <c r="N48" s="34">
-        <f t="shared" ref="N48:U48" si="171">($L20+N20)/N34</f>
+        <f t="shared" ref="N48:U48" si="193">($L20+N20)/N34</f>
         <v>7.4475530267236134E-2</v>
       </c>
       <c r="O48" s="34">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>8.9932130584192443E-2</v>
       </c>
       <c r="P48" s="34">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>0.104205392753514</v>
       </c>
       <c r="Q48" s="34">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>0.11805967512357175</v>
       </c>
       <c r="R48" s="34">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>0.12908732587285421</v>
       </c>
       <c r="S48" s="34">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>0.18294481605351171</v>
       </c>
       <c r="T48" s="34">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>0.26259080453240036</v>
       </c>
       <c r="U48" s="34">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>0.32174297496697529</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M49" s="34">
-        <f t="shared" ref="M49:U49" si="172">($L21+M21)/M35</f>
+        <f t="shared" ref="M49:U49" si="194">($L21+M21)/M35</f>
         <v>-0.48831716210925857</v>
       </c>
       <c r="N49" s="34">
-        <f t="shared" si="172"/>
+        <f t="shared" si="194"/>
         <v>-0.33501203531707818</v>
       </c>
       <c r="O49" s="34">
-        <f t="shared" si="172"/>
+        <f t="shared" si="194"/>
         <v>-0.25019584233387615</v>
       </c>
       <c r="P49" s="34">
-        <f t="shared" si="172"/>
+        <f t="shared" si="194"/>
         <v>-0.1879108243245631</v>
       </c>
       <c r="Q49" s="34">
-        <f t="shared" si="172"/>
+        <f t="shared" si="194"/>
         <v>-0.14035235486232364</v>
       </c>
       <c r="R49" s="34">
-        <f t="shared" si="172"/>
+        <f t="shared" si="194"/>
         <v>-0.10815570636114995</v>
       </c>
       <c r="S49" s="34">
-        <f t="shared" si="172"/>
+        <f t="shared" si="194"/>
         <v>1.5927620887685453E-2</v>
       </c>
       <c r="T49" s="34">
-        <f t="shared" si="172"/>
+        <f t="shared" si="194"/>
         <v>0.14914540199749227</v>
       </c>
       <c r="U49" s="34">
-        <f t="shared" si="172"/>
+        <f t="shared" si="194"/>
         <v>0.22927404930983575</v>
       </c>
+      <c r="BQ49">
+        <f>C7*($BO7^2)*BQ$4</f>
+        <v>14.855976949</v>
+      </c>
+      <c r="BR49">
+        <f t="shared" ref="BR49:BX49" si="195">D7*($BO7^2)*BR$4</f>
+        <v>21.62333525</v>
+      </c>
+      <c r="BS49">
+        <f t="shared" si="195"/>
+        <v>28.838072901</v>
+      </c>
+      <c r="BT49">
+        <f t="shared" si="195"/>
+        <v>36.703001873999995</v>
+      </c>
+      <c r="BU49">
+        <f t="shared" si="195"/>
+        <v>43.694049849999999</v>
+      </c>
+      <c r="BV49">
+        <f t="shared" si="195"/>
+        <v>87.388099699999998</v>
+      </c>
+      <c r="BW49">
+        <f t="shared" si="195"/>
+        <v>182.53077480000002</v>
+      </c>
+      <c r="BX49">
+        <f t="shared" si="195"/>
+        <v>273.70668633000003</v>
+      </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M50" s="34">
-        <f t="shared" ref="M50:U50" si="173">($L22+M22)/M36</f>
+        <f t="shared" ref="M50:U50" si="196">($L22+M22)/M36</f>
         <v>-0.94695845154828218</v>
       </c>
       <c r="N50" s="34">
-        <f t="shared" si="173"/>
+        <f t="shared" si="196"/>
         <v>-0.7144703411036587</v>
       </c>
       <c r="O50" s="34">
-        <f t="shared" si="173"/>
+        <f t="shared" si="196"/>
         <v>-0.56757020554706827</v>
       </c>
       <c r="P50" s="34">
-        <f t="shared" si="173"/>
+        <f t="shared" si="196"/>
         <v>-0.46249459492102224</v>
       </c>
       <c r="Q50" s="34">
-        <f t="shared" si="173"/>
+        <f t="shared" si="196"/>
         <v>-0.384873051821426</v>
       </c>
       <c r="R50" s="34">
-        <f t="shared" si="173"/>
+        <f t="shared" si="196"/>
         <v>-0.33230606167435861</v>
       </c>
       <c r="S50" s="34">
-        <f t="shared" si="173"/>
+        <f t="shared" si="196"/>
         <v>-0.14466102322295185</v>
       </c>
       <c r="T50" s="34">
-        <f t="shared" si="173"/>
+        <f t="shared" si="196"/>
         <v>4.2347423958062916E-2</v>
       </c>
       <c r="U50" s="34">
-        <f t="shared" si="173"/>
+        <f t="shared" si="196"/>
         <v>0.14165188860232852</v>
       </c>
+      <c r="BQ50">
+        <f t="shared" ref="BQ50:BX50" si="197">C8*($BO8^2)*BQ$4</f>
+        <v>16.468000163999999</v>
+      </c>
+      <c r="BR50">
+        <f t="shared" si="197"/>
+        <v>23.973024599999995</v>
+      </c>
+      <c r="BS50">
+        <f t="shared" si="197"/>
+        <v>31.752026459999996</v>
+      </c>
+      <c r="BT50">
+        <f t="shared" si="197"/>
+        <v>40.274681327999993</v>
+      </c>
+      <c r="BU50">
+        <f t="shared" si="197"/>
+        <v>47.782967399999997</v>
+      </c>
+      <c r="BV50">
+        <f t="shared" si="197"/>
+        <v>95.565934799999994</v>
+      </c>
+      <c r="BW50">
+        <f t="shared" si="197"/>
+        <v>198.95979599999998</v>
+      </c>
+      <c r="BX50">
+        <f t="shared" si="197"/>
+        <v>298.04829767999996</v>
+      </c>
     </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M51" s="34">
-        <f t="shared" ref="M51:U51" si="174">($L23+M23)/M37</f>
+        <f t="shared" ref="M51:U51" si="198">($L23+M23)/M37</f>
         <v>-1.3570271664844906</v>
       </c>
       <c r="N51" s="34">
-        <f t="shared" si="174"/>
+        <f t="shared" si="198"/>
         <v>-1.0684720823831686</v>
       </c>
       <c r="O51" s="34">
-        <f t="shared" si="174"/>
+        <f t="shared" si="198"/>
         <v>-0.86213833765018322</v>
       </c>
       <c r="P51" s="34">
-        <f t="shared" si="174"/>
+        <f t="shared" si="198"/>
         <v>-0.72215502250182162</v>
       </c>
       <c r="Q51" s="34">
-        <f t="shared" si="174"/>
+        <f t="shared" si="198"/>
         <v>-0.61767145844650673</v>
       </c>
       <c r="R51" s="34">
-        <f t="shared" si="174"/>
+        <f t="shared" si="198"/>
         <v>-0.54819640877968567</v>
       </c>
       <c r="S51" s="34">
-        <f t="shared" si="174"/>
+        <f t="shared" si="198"/>
         <v>-0.29731855165384619</v>
       </c>
       <c r="T51" s="34">
-        <f t="shared" si="174"/>
+        <f t="shared" si="198"/>
         <v>-6.2628414305141447E-2</v>
       </c>
       <c r="U51" s="34">
-        <f t="shared" si="174"/>
+        <f t="shared" si="198"/>
         <v>5.5219600057953497E-2</v>
       </c>
+      <c r="BQ51">
+        <f t="shared" ref="BQ51:BX51" si="199">C9*($BO9^2)*BQ$4</f>
+        <v>18.524610864000003</v>
+      </c>
+      <c r="BR51">
+        <f t="shared" si="199"/>
+        <v>26.798392799999998</v>
+      </c>
+      <c r="BS51">
+        <f t="shared" si="199"/>
+        <v>35.022482352000004</v>
+      </c>
+      <c r="BT51">
+        <f t="shared" si="199"/>
+        <v>44.275914143999998</v>
+      </c>
+      <c r="BU51">
+        <f t="shared" si="199"/>
+        <v>52.354475999999998</v>
+      </c>
+      <c r="BV51">
+        <f t="shared" si="199"/>
+        <v>103.6441152</v>
+      </c>
+      <c r="BW51">
+        <f t="shared" si="199"/>
+        <v>215.0970336</v>
+      </c>
+      <c r="BX51">
+        <f t="shared" si="199"/>
+        <v>323.07148512000003</v>
+      </c>
     </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M52" s="34">
-        <f t="shared" ref="M52:U52" si="175">($L24+M24)/M38</f>
+        <f t="shared" ref="M52:U52" si="200">($L24+M24)/M38</f>
         <v>-1.7841471501818615</v>
       </c>
       <c r="N52" s="34">
-        <f t="shared" si="175"/>
+        <f t="shared" si="200"/>
         <v>-1.3636537218733917</v>
       </c>
       <c r="O52" s="34">
-        <f t="shared" si="175"/>
+        <f t="shared" si="200"/>
         <v>-1.1153712370460576</v>
       </c>
       <c r="P52" s="34">
-        <f t="shared" si="175"/>
+        <f t="shared" si="200"/>
         <v>-0.95638142964601125</v>
       </c>
       <c r="Q52" s="34">
-        <f t="shared" si="175"/>
+        <f t="shared" si="200"/>
         <v>-0.82917355664784276</v>
       </c>
       <c r="R52" s="34">
-        <f t="shared" si="175"/>
+        <f t="shared" si="200"/>
         <v>-0.74577141255166812</v>
       </c>
       <c r="S52" s="34">
-        <f t="shared" si="175"/>
+        <f t="shared" si="200"/>
         <v>-0.44414231778751617</v>
       </c>
       <c r="T52" s="34">
-        <f t="shared" si="175"/>
+        <f t="shared" si="200"/>
         <v>-0.16455414873863672</v>
       </c>
       <c r="U52" s="34">
-        <f t="shared" si="175"/>
+        <f t="shared" si="200"/>
         <v>-2.7105808834492831E-2</v>
       </c>
+      <c r="BQ52">
+        <f t="shared" ref="BQ52:BX52" si="201">C10*($BO10^2)*BQ$4</f>
+        <v>20.307254629999999</v>
+      </c>
+      <c r="BR52">
+        <f t="shared" si="201"/>
+        <v>29.381938624999997</v>
+      </c>
+      <c r="BS52">
+        <f t="shared" si="201"/>
+        <v>38.402675453999997</v>
+      </c>
+      <c r="BT52">
+        <f t="shared" si="201"/>
+        <v>48.390607901999992</v>
+      </c>
+      <c r="BU52">
+        <f t="shared" si="201"/>
+        <v>57.222529649999991</v>
+      </c>
+      <c r="BV52">
+        <f t="shared" si="201"/>
+        <v>112.13303789999998</v>
+      </c>
+      <c r="BW52">
+        <f t="shared" si="201"/>
+        <v>232.74348759999998</v>
+      </c>
+      <c r="BX52">
+        <f t="shared" si="201"/>
+        <v>349.34643353999996</v>
+      </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M53" s="34">
-        <f t="shared" ref="M53:U53" si="176">($L25+M25)/M39</f>
+        <f t="shared" ref="M53:U53" si="202">($L25+M25)/M39</f>
         <v>-2.1990848758251871</v>
       </c>
       <c r="N53" s="34">
-        <f t="shared" si="176"/>
+        <f t="shared" si="202"/>
         <v>-1.6705994361535277</v>
       </c>
       <c r="O53" s="34">
-        <f t="shared" si="176"/>
+        <f t="shared" si="202"/>
         <v>-1.3722634159613598</v>
       </c>
       <c r="P53" s="34">
-        <f t="shared" si="176"/>
+        <f t="shared" si="202"/>
         <v>-1.1819390721184981</v>
       </c>
       <c r="Q53" s="34">
-        <f t="shared" si="176"/>
+        <f t="shared" si="202"/>
         <v>-1.0343179890542793</v>
       </c>
       <c r="R53" s="34">
-        <f t="shared" si="176"/>
+        <f t="shared" si="202"/>
         <v>-0.93493347164426022</v>
       </c>
       <c r="S53" s="34">
-        <f t="shared" si="176"/>
+        <f t="shared" si="202"/>
         <v>-0.58782747743679509</v>
       </c>
       <c r="T53" s="34">
-        <f t="shared" si="176"/>
+        <f t="shared" si="202"/>
         <v>-0.26269320352800529</v>
       </c>
       <c r="U53" s="34">
-        <f t="shared" si="176"/>
+        <f t="shared" si="202"/>
         <v>-0.10777275573071644</v>
       </c>
+      <c r="BQ53">
+        <f t="shared" ref="BQ53:BX53" si="203">C11*($BO11^2)*BQ$4</f>
+        <v>21.95313887</v>
+      </c>
+      <c r="BR53">
+        <f t="shared" si="203"/>
+        <v>31.971601675000002</v>
+      </c>
+      <c r="BS53">
+        <f t="shared" si="203"/>
+        <v>42.065046737999999</v>
+      </c>
+      <c r="BT53">
+        <f t="shared" si="203"/>
+        <v>53.187415008000002</v>
+      </c>
+      <c r="BU53">
+        <f t="shared" si="203"/>
+        <v>62.485214999999997</v>
+      </c>
+      <c r="BV53">
+        <f t="shared" si="203"/>
+        <v>121.22131709999999</v>
+      </c>
+      <c r="BW53">
+        <f t="shared" si="203"/>
+        <v>249.1077238</v>
+      </c>
+      <c r="BX53">
+        <f t="shared" si="203"/>
+        <v>373.53661527000003</v>
+      </c>
     </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M54" s="34">
-        <f t="shared" ref="M54:U54" si="177">($L26+M26)/M40</f>
+        <f t="shared" ref="M54:U54" si="204">($L26+M26)/M40</f>
         <v>-2.5927005984745777</v>
       </c>
       <c r="N54" s="34">
-        <f t="shared" si="177"/>
+        <f t="shared" si="204"/>
         <v>-1.975458646908054</v>
       </c>
       <c r="O54" s="34">
-        <f t="shared" si="177"/>
+        <f t="shared" si="204"/>
         <v>-1.6161768043484763</v>
       </c>
       <c r="P54" s="34">
-        <f t="shared" si="177"/>
+        <f t="shared" si="204"/>
         <v>-1.385876162108878</v>
       </c>
       <c r="Q54" s="34">
-        <f t="shared" si="177"/>
+        <f t="shared" si="204"/>
         <v>-1.2118746771681919</v>
       </c>
       <c r="R54" s="34">
-        <f t="shared" si="177"/>
+        <f t="shared" si="204"/>
         <v>-1.1071607604223579</v>
       </c>
       <c r="S54" s="34">
-        <f t="shared" si="177"/>
+        <f t="shared" si="204"/>
         <v>-0.72173114937282168</v>
       </c>
       <c r="T54" s="34">
-        <f t="shared" si="177"/>
+        <f t="shared" si="204"/>
         <v>-0.36174368420533193</v>
       </c>
       <c r="U54" s="34">
-        <f t="shared" si="177"/>
+        <f t="shared" si="204"/>
         <v>-0.18997595575615614</v>
       </c>
+      <c r="BQ54">
+        <f t="shared" ref="BQ54:BX54" si="205">C12*($BO12^2)*BQ$4</f>
+        <v>23.685488000000003</v>
+      </c>
+      <c r="BR54">
+        <f t="shared" si="205"/>
+        <v>34.719239999999999</v>
+      </c>
+      <c r="BS54">
+        <f t="shared" si="205"/>
+        <v>46.274342400000002</v>
+      </c>
+      <c r="BT54">
+        <f t="shared" si="205"/>
+        <v>58.517088000000001</v>
+      </c>
+      <c r="BU54">
+        <f t="shared" si="205"/>
+        <v>68.314880000000002</v>
+      </c>
+      <c r="BV54">
+        <f t="shared" si="205"/>
+        <v>130.78703999999999</v>
+      </c>
+      <c r="BW54">
+        <f t="shared" si="205"/>
+        <v>264.27071999999998</v>
+      </c>
+      <c r="BX54">
+        <f t="shared" si="205"/>
+        <v>396.13641599999994</v>
+      </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M55" s="34">
-        <f t="shared" ref="M55:U55" si="178">($L27+M27)/M41</f>
+        <f t="shared" ref="M55:U55" si="206">($L27+M27)/M41</f>
         <v>-2.9763181981539764</v>
       </c>
       <c r="N55" s="34">
-        <f t="shared" si="178"/>
+        <f t="shared" si="206"/>
         <v>-2.2725742140470704</v>
       </c>
       <c r="O55" s="34">
-        <f t="shared" si="178"/>
+        <f t="shared" si="206"/>
         <v>-1.8505200279851417</v>
       </c>
       <c r="P55" s="34">
-        <f t="shared" si="178"/>
+        <f t="shared" si="206"/>
         <v>-1.5676959965553796</v>
       </c>
       <c r="Q55" s="34">
-        <f t="shared" si="178"/>
+        <f t="shared" si="206"/>
         <v>-1.3735958248518947</v>
       </c>
       <c r="R55" s="34">
-        <f t="shared" si="178"/>
+        <f t="shared" si="206"/>
         <v>-1.2664490364807557</v>
       </c>
       <c r="S55" s="34">
-        <f t="shared" si="178"/>
+        <f t="shared" si="206"/>
         <v>-0.85223357155912161</v>
       </c>
       <c r="T55" s="34">
-        <f t="shared" si="178"/>
+        <f t="shared" si="206"/>
         <v>-0.46636450735091928</v>
       </c>
       <c r="U55" s="34">
-        <f t="shared" si="178"/>
+        <f t="shared" si="206"/>
         <v>-0.27681137127926364</v>
       </c>
+      <c r="BQ55">
+        <f t="shared" ref="BQ55:BX55" si="207">C13*($BO13^2)*BQ$4</f>
+        <v>25.460445080000003</v>
+      </c>
+      <c r="BR55">
+        <f t="shared" si="207"/>
+        <v>37.441831000000001</v>
+      </c>
+      <c r="BS55">
+        <f t="shared" si="207"/>
+        <v>50.060935848000007</v>
+      </c>
+      <c r="BT55">
+        <f t="shared" si="207"/>
+        <v>63.511007784</v>
+      </c>
+      <c r="BU55">
+        <f t="shared" si="207"/>
+        <v>74.158981400000002</v>
+      </c>
+      <c r="BV55">
+        <f t="shared" si="207"/>
+        <v>141.07115679999998</v>
+      </c>
+      <c r="BW55">
+        <f t="shared" si="207"/>
+        <v>279.24359119999997</v>
+      </c>
+      <c r="BX55">
+        <f t="shared" si="207"/>
+        <v>418.57551456000004</v>
+      </c>
     </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M56" s="34">
-        <f t="shared" ref="M56:U56" si="179">($L28+M28)/M42</f>
+        <f t="shared" ref="M56:U56" si="208">($L28+M28)/M42</f>
         <v>-3.3413041649014437</v>
       </c>
       <c r="N56" s="34">
-        <f t="shared" si="179"/>
+        <f t="shared" si="208"/>
         <v>-2.5552594000202511</v>
       </c>
       <c r="O56" s="34">
-        <f t="shared" si="179"/>
+        <f t="shared" si="208"/>
         <v>-2.0771595911046004</v>
       </c>
       <c r="P56" s="34">
-        <f t="shared" si="179"/>
+        <f t="shared" si="208"/>
         <v>-1.756875397676674</v>
       </c>
       <c r="Q56" s="34">
-        <f t="shared" si="179"/>
+        <f t="shared" si="208"/>
         <v>-1.5366185553558611</v>
       </c>
       <c r="R56" s="34">
-        <f t="shared" si="179"/>
+        <f t="shared" si="208"/>
         <v>-1.4184054692828592</v>
       </c>
       <c r="S56" s="34">
-        <f t="shared" si="179"/>
+        <f t="shared" si="208"/>
         <v>-0.97205560486716802</v>
       </c>
       <c r="T56" s="34">
-        <f t="shared" si="179"/>
+        <f t="shared" si="208"/>
         <v>-0.56997023910260136</v>
       </c>
       <c r="U56" s="34">
-        <f t="shared" si="179"/>
+        <f t="shared" si="208"/>
         <v>-0.36257132430258066</v>
       </c>
+      <c r="BQ56">
+        <f t="shared" ref="BQ56:BX56" si="209">C14*($BO14^2)*BQ$4</f>
+        <v>27.323521830000001</v>
+      </c>
+      <c r="BR56">
+        <f t="shared" si="209"/>
+        <v>40.181649749999998</v>
+      </c>
+      <c r="BS56">
+        <f t="shared" si="209"/>
+        <v>53.724161897999998</v>
+      </c>
+      <c r="BT56">
+        <f t="shared" si="209"/>
+        <v>68.376206051999986</v>
+      </c>
+      <c r="BU56">
+        <f t="shared" si="209"/>
+        <v>79.84482659999999</v>
+      </c>
+      <c r="BV56">
+        <f t="shared" si="209"/>
+        <v>152.43103259999998</v>
+      </c>
+      <c r="BW56">
+        <f t="shared" si="209"/>
+        <v>299.67733619999996</v>
+      </c>
+      <c r="BX56">
+        <f t="shared" si="209"/>
+        <v>449.51600429999996</v>
+      </c>
     </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M57" s="34">
-        <f t="shared" ref="M57:U57" si="180">($L29+M29)/M43</f>
+        <f t="shared" ref="M57:U57" si="210">($L29+M29)/M43</f>
         <v>-3.697998433914917</v>
       </c>
       <c r="N57" s="34">
-        <f t="shared" si="180"/>
+        <f t="shared" si="210"/>
         <v>-2.8315225853426802</v>
       </c>
       <c r="O57" s="34">
-        <f t="shared" si="180"/>
+        <f t="shared" si="210"/>
         <v>-2.3049720498153929</v>
       </c>
       <c r="P57" s="34">
-        <f t="shared" si="180"/>
+        <f t="shared" si="210"/>
         <v>-1.9526347644133373</v>
       </c>
       <c r="Q57" s="34">
-        <f t="shared" si="180"/>
+        <f t="shared" si="210"/>
         <v>-1.704599956037778</v>
       </c>
       <c r="R57" s="34">
-        <f t="shared" si="180"/>
+        <f t="shared" si="210"/>
         <v>-1.5752280564821726</v>
       </c>
       <c r="S57" s="34">
-        <f t="shared" si="180"/>
+        <f t="shared" si="210"/>
         <v>-1.0835549922496119</v>
       </c>
       <c r="T57" s="34">
-        <f t="shared" si="180"/>
+        <f t="shared" si="210"/>
         <v>-0.65636677484980943</v>
       </c>
       <c r="U57" s="34">
-        <f t="shared" si="180"/>
+        <f t="shared" si="210"/>
         <v>-0.43251659563648809</v>
       </c>
+      <c r="BQ57">
+        <f t="shared" ref="BQ57:BX57" si="211">C15*($BO15^2)*BQ$4</f>
+        <v>29.227551750000007</v>
+      </c>
+      <c r="BR57">
+        <f t="shared" si="211"/>
+        <v>42.981693750000005</v>
+      </c>
+      <c r="BS57">
+        <f t="shared" si="211"/>
+        <v>57.467911050000012</v>
+      </c>
+      <c r="BT57">
+        <f t="shared" si="211"/>
+        <v>73.373910750000007</v>
+      </c>
+      <c r="BU57">
+        <f t="shared" si="211"/>
+        <v>86.240688750000018</v>
+      </c>
+      <c r="BV57">
+        <f t="shared" si="211"/>
+        <v>164.16234000000003</v>
+      </c>
+      <c r="BW57">
+        <f t="shared" si="211"/>
+        <v>320.56024500000001</v>
+      </c>
+      <c r="BX57">
+        <f t="shared" si="211"/>
+        <v>481.50589050000008</v>
+      </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M58" s="34">
-        <f t="shared" ref="M58:U58" si="181">($L30+M30)/M44</f>
+        <f t="shared" ref="M58:U58" si="212">($L30+M30)/M44</f>
         <v>-4.0382374117865192</v>
       </c>
       <c r="N58" s="34">
-        <f t="shared" si="181"/>
+        <f t="shared" si="212"/>
         <v>-3.0950409874118368</v>
       </c>
       <c r="O58" s="34">
-        <f t="shared" si="181"/>
+        <f t="shared" si="212"/>
         <v>-2.522274891020416</v>
       </c>
       <c r="P58" s="34">
-        <f t="shared" si="181"/>
+        <f t="shared" si="212"/>
         <v>-2.1393632112467755</v>
       </c>
       <c r="Q58" s="34">
-        <f t="shared" si="181"/>
+        <f t="shared" si="212"/>
         <v>-1.8635331087299412</v>
       </c>
       <c r="R58" s="34">
-        <f t="shared" si="181"/>
+        <f t="shared" si="212"/>
         <v>-1.7110840824829638</v>
       </c>
       <c r="S58" s="34">
-        <f t="shared" si="181"/>
+        <f t="shared" si="212"/>
         <v>-1.1880307706356907</v>
       </c>
       <c r="T58" s="34">
-        <f t="shared" si="181"/>
+        <f t="shared" si="212"/>
         <v>-0.73877759993981695</v>
       </c>
       <c r="U58" s="34">
-        <f t="shared" si="181"/>
+        <f t="shared" si="212"/>
         <v>-0.49842159589032836</v>
       </c>
+      <c r="BQ58">
+        <f t="shared" ref="BQ58:BX58" si="213">C16*($BO16^2)*BQ$4</f>
+        <v>31.221356120000003</v>
+      </c>
+      <c r="BR58">
+        <f t="shared" si="213"/>
+        <v>45.913758999999999</v>
+      </c>
+      <c r="BS58">
+        <f t="shared" si="213"/>
+        <v>61.388176872000003</v>
+      </c>
+      <c r="BT58">
+        <f t="shared" si="213"/>
+        <v>77.383938072000007</v>
+      </c>
+      <c r="BU58">
+        <f t="shared" si="213"/>
+        <v>92.419953599999999</v>
+      </c>
+      <c r="BV58">
+        <f t="shared" si="213"/>
+        <v>176.5458088</v>
+      </c>
+      <c r="BW58">
+        <f t="shared" si="213"/>
+        <v>343.61264799999998</v>
+      </c>
+      <c r="BX58">
+        <f t="shared" si="213"/>
+        <v>515.06351064</v>
+      </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M59" s="34">
-        <f t="shared" ref="M59:U59" si="182">($L31+M31)/M45</f>
+        <f t="shared" ref="M59:U59" si="214">($L31+M31)/M45</f>
         <v>-4.3461375684594135</v>
       </c>
       <c r="N59" s="34">
-        <f t="shared" si="182"/>
+        <f t="shared" si="214"/>
         <v>-3.3531870431731456</v>
       </c>
       <c r="O59" s="34">
-        <f t="shared" si="182"/>
+        <f t="shared" si="214"/>
         <v>-2.7351475819685085</v>
       </c>
       <c r="P59" s="34">
-        <f t="shared" si="182"/>
+        <f t="shared" si="214"/>
         <v>-2.3222848276120618</v>
       </c>
       <c r="Q59" s="34">
-        <f t="shared" si="182"/>
+        <f t="shared" si="214"/>
         <v>-2.0538171075399121</v>
       </c>
       <c r="R59" s="34">
-        <f t="shared" si="182"/>
+        <f t="shared" si="214"/>
         <v>-1.8544526926682621</v>
       </c>
       <c r="S59" s="34">
-        <f t="shared" si="182"/>
+        <f t="shared" si="214"/>
         <v>-1.2887864939769089</v>
       </c>
       <c r="T59" s="34">
-        <f t="shared" si="182"/>
+        <f t="shared" si="214"/>
         <v>-0.81527065057799275</v>
       </c>
       <c r="U59" s="34">
-        <f t="shared" si="182"/>
+        <f t="shared" si="214"/>
         <v>-0.56277569159945651</v>
       </c>
+      <c r="BQ59">
+        <f t="shared" ref="BQ59:BX59" si="215">C17*($BO17^2)*BQ$4</f>
+        <v>33.254458880000001</v>
+      </c>
+      <c r="BR59">
+        <f t="shared" si="215"/>
+        <v>48.903616</v>
+      </c>
+      <c r="BS59">
+        <f t="shared" si="215"/>
+        <v>65.385712128000009</v>
+      </c>
+      <c r="BT59">
+        <f t="shared" si="215"/>
+        <v>83.483205120000008</v>
+      </c>
+      <c r="BU59">
+        <f t="shared" si="215"/>
+        <v>98.438246399999997</v>
+      </c>
+      <c r="BV59">
+        <f t="shared" si="215"/>
+        <v>188.67330559999999</v>
+      </c>
+      <c r="BW59">
+        <f t="shared" si="215"/>
+        <v>365.98835199999996</v>
+      </c>
+      <c r="BX59">
+        <f t="shared" si="215"/>
+        <v>549.17183232000014</v>
+      </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:76" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="M60" s="34">
-        <f t="shared" ref="M60:U60" si="183">($L32+M32)/M46</f>
+        <f t="shared" ref="M60:U60" si="216">($L32+M32)/M46</f>
         <v>-4.6629621257436478</v>
       </c>
       <c r="N60" s="34">
-        <f t="shared" si="183"/>
+        <f t="shared" si="216"/>
         <v>-3.5999729410576884</v>
       </c>
       <c r="O60" s="34">
-        <f t="shared" si="183"/>
+        <f t="shared" si="216"/>
         <v>-2.9386524467466812</v>
       </c>
       <c r="P60" s="34">
-        <f t="shared" si="183"/>
+        <f t="shared" si="216"/>
         <v>-2.4971566659752993</v>
       </c>
       <c r="Q60" s="34">
-        <f t="shared" si="183"/>
+        <f t="shared" si="216"/>
         <v>-2.17967628374983</v>
       </c>
       <c r="R60" s="34">
-        <f t="shared" si="183"/>
+        <f t="shared" si="216"/>
         <v>-1.9974299287760189</v>
       </c>
       <c r="S60" s="34">
-        <f t="shared" si="183"/>
+        <f t="shared" si="216"/>
         <v>-1.3889736764071425</v>
       </c>
       <c r="T60" s="34">
-        <f t="shared" si="183"/>
+        <f t="shared" si="216"/>
         <v>-0.89218254310492406</v>
       </c>
       <c r="U60" s="34">
-        <f t="shared" si="183"/>
+        <f t="shared" si="216"/>
         <v>-0.62445101412441528</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M61" s="34"/>
       <c r="N61" s="34"/>
       <c r="O61" s="34"/>
@@ -11811,7 +12869,7 @@
       <c r="T61" s="34"/>
       <c r="U61" s="34"/>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:76" x14ac:dyDescent="0.25">
       <c r="M62" s="34"/>
       <c r="N62" s="34"/>
       <c r="O62" s="34"/>
@@ -11822,7 +12880,7 @@
       <c r="T62" s="34"/>
       <c r="U62" s="34"/>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:76" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
